--- a/Jesse - Job Applications 12_2023 - current.xlsx
+++ b/Jesse - Job Applications 12_2023 - current.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="807">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="833">
   <si>
     <t>Date</t>
   </si>
@@ -2433,6 +2433,84 @@
   </si>
   <si>
     <t>https://www.indeed.com/jobs?q=rust&amp;l=Remote&amp;sort=date&amp;vjk=f02dbcd2a5d6336c</t>
+  </si>
+  <si>
+    <t>US Bank</t>
+  </si>
+  <si>
+    <t>https://careers.usbank.com/global/en/job/UBNAGLOBAL20240013913EXTERNALENGLOBAL/Lead-Software-Engineer?utm_source=indeed&amp;utm_medium=phenom-feeds&amp;src=DM-10101</t>
+  </si>
+  <si>
+    <t>Senior Software Development Engineer (Testing) - SDET</t>
+  </si>
+  <si>
+    <t>k-ID</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/viewjob?jk=14af1191fea6b3b4&amp;from=apply-conf</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer (Mobile / Web)</t>
+  </si>
+  <si>
+    <t>Pulsar Informatics Inc</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software+engineer&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;fromage=1&amp;start=10&amp;vjk=780ab4037e407979&amp;advn=4019487821011773</t>
+  </si>
+  <si>
+    <t>Senior Backend Engineer (USA)</t>
+  </si>
+  <si>
+    <t>Kalepa</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/kalepa/jobs/4058343004?gh_src=d98e21d04us</t>
+  </si>
+  <si>
+    <t>Senior Fullstack Software Engineer</t>
+  </si>
+  <si>
+    <t>tvScientific</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/tvscientific/jobs/4055480008?gh_src=b984debf8us</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer (Raleigh, NC)</t>
+  </si>
+  <si>
+    <t>BrainGu</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/braingu/jobs/5866731003?gh_src=c9388f6e3us</t>
+  </si>
+  <si>
+    <t>Senior Full Stack Engineer, Product</t>
+  </si>
+  <si>
+    <t>Pulley</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/pulley/jobs/4009208008?gh_src=5ff24d538us</t>
+  </si>
+  <si>
+    <t>Blockchain Backend Engineer(API)</t>
+  </si>
+  <si>
+    <t>Startale Labs</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/search/?currentJobId=3958003698&amp;f_EA=true&amp;f_TPR=r86400&amp;f_WT=2&amp;keywords=software%20engineer&amp;origin=JOB_SEARCH_PAGE_JOB_FILTER&amp;refresh=true&amp;sortBy=R</t>
+  </si>
+  <si>
+    <t>Senior Systems Engineer (Rust)</t>
+  </si>
+  <si>
+    <t>Aerodome</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/aerodome/jobs/4035522008?gh_src=e453d2728us</t>
   </si>
 </sst>
 </file>
@@ -7740,31 +7818,130 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="9"/>
+      <c r="A284" s="1">
+        <v>45467.0</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="T284" s="6" t="s">
+        <v>808</v>
+      </c>
     </row>
     <row r="285">
-      <c r="A285" s="9"/>
+      <c r="A285" s="1">
+        <v>45467.0</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>810</v>
+      </c>
+      <c r="T285" s="6" t="s">
+        <v>811</v>
+      </c>
     </row>
     <row r="286">
-      <c r="A286" s="9"/>
+      <c r="A286" s="1">
+        <v>45467.0</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="T286" s="4" t="s">
+        <v>814</v>
+      </c>
     </row>
     <row r="287">
-      <c r="A287" s="9"/>
+      <c r="A287" s="1">
+        <v>45467.0</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>816</v>
+      </c>
+      <c r="T287" s="6" t="s">
+        <v>817</v>
+      </c>
     </row>
     <row r="288">
-      <c r="A288" s="9"/>
+      <c r="A288" s="1">
+        <v>45467.0</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>818</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="T288" s="6" t="s">
+        <v>820</v>
+      </c>
     </row>
     <row r="289">
-      <c r="A289" s="9"/>
+      <c r="A289" s="1">
+        <v>45467.0</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>822</v>
+      </c>
+      <c r="T289" s="6" t="s">
+        <v>823</v>
+      </c>
     </row>
     <row r="290">
-      <c r="A290" s="9"/>
+      <c r="A290" s="1">
+        <v>45467.0</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="T290" s="6" t="s">
+        <v>826</v>
+      </c>
     </row>
     <row r="291">
-      <c r="A291" s="9"/>
+      <c r="A291" s="1">
+        <v>45467.0</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="T291" s="6" t="s">
+        <v>829</v>
+      </c>
     </row>
     <row r="292">
-      <c r="A292" s="9"/>
+      <c r="A292" s="1">
+        <v>45467.0</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="T292" s="6" t="s">
+        <v>832</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="9"/>
@@ -10281,7 +10458,16 @@
     <hyperlink r:id="rId264" ref="T281"/>
     <hyperlink r:id="rId265" ref="T282"/>
     <hyperlink r:id="rId266" ref="T283"/>
+    <hyperlink r:id="rId267" ref="T284"/>
+    <hyperlink r:id="rId268" ref="T285"/>
+    <hyperlink r:id="rId269" ref="T286"/>
+    <hyperlink r:id="rId270" ref="T287"/>
+    <hyperlink r:id="rId271" ref="T288"/>
+    <hyperlink r:id="rId272" ref="T289"/>
+    <hyperlink r:id="rId273" ref="T290"/>
+    <hyperlink r:id="rId274" ref="T291"/>
+    <hyperlink r:id="rId275" ref="T292"/>
   </hyperlinks>
-  <drawing r:id="rId267"/>
+  <drawing r:id="rId276"/>
 </worksheet>
 </file>
--- a/Jesse - Job Applications 12_2023 - current.xlsx
+++ b/Jesse - Job Applications 12_2023 - current.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="904">
   <si>
     <t>Date</t>
   </si>
@@ -2511,6 +2511,219 @@
   </si>
   <si>
     <t>https://boards.greenhouse.io/aerodome/jobs/4035522008?gh_src=e453d2728us</t>
+  </si>
+  <si>
+    <t>Principal Engineer, OAuth, SAML, Cloud Security</t>
+  </si>
+  <si>
+    <t>Cisco Meraki</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=go&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;sort=date&amp;vjk=e968bbab78d55697</t>
+  </si>
+  <si>
+    <t>Principal Software Engineer I - Inventory Management Systems</t>
+  </si>
+  <si>
+    <t>Stitch Fix</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=go&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;sort=date&amp;vjk=a7535580127f4742</t>
+  </si>
+  <si>
+    <t>Rust Engineer</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3963833770</t>
+  </si>
+  <si>
+    <t>Healthy.io</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3962558902</t>
+  </si>
+  <si>
+    <t>Rise Technical Recruitment Limited</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software+engineer&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;fromage=1&amp;sort=date&amp;vjk=968373de71670549&amp;advn=5434344450767751</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer - Edge</t>
+  </si>
+  <si>
+    <t>Red Hat, Inc.</t>
+  </si>
+  <si>
+    <t>https://redhat.wd5.myworkdayjobs.com/en-US/jobs/job/Raleigh/Senior-Software-Engineer---Edge_R-039104?mode=job&amp;iis=Indeed&amp;iisn=Indeed.com</t>
+  </si>
+  <si>
+    <t>Site Reliability Engineer</t>
+  </si>
+  <si>
+    <t>Guidewire Software</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software+engineer&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;sort=date&amp;fromage=1&amp;start=10&amp;vjk=c4bead186d75464f</t>
+  </si>
+  <si>
+    <t>Sr QA Automation Engineer</t>
+  </si>
+  <si>
+    <t>CNO Financial Group</t>
+  </si>
+  <si>
+    <t>https://careers.cnoinc.com/carmel-in/sr-qa-automation-engineer-remote/7546560A6A3640B68746359D6F5287A6/job/?vs=1554&amp;utm_source=Indeed-DE&amp;utm_medium=Job%20Aggregator&amp;utm_campaign=Indeed</t>
+  </si>
+  <si>
+    <t>Senior FullStack Engineer (remote)</t>
+  </si>
+  <si>
+    <t>Localize</t>
+  </si>
+  <si>
+    <t>https://weworkremotely.com/remote-jobs/localize-senior-fullstack-engineer</t>
+  </si>
+  <si>
+    <t>Computer Programmer III-Remote</t>
+  </si>
+  <si>
+    <t>Akima</t>
+  </si>
+  <si>
+    <t>https://careers.akima.com/madison-wi/computer-programmer-iii-remote/7A8C38AAD7B04590B84036C893740ACA/job/?vs=1554&amp;utm_source=Indeed-DE&amp;utm_medium=Job+Aggregator&amp;utm_campaign=Indeed</t>
+  </si>
+  <si>
+    <t>Lead Engineer - Data / JavaScript - Remote</t>
+  </si>
+  <si>
+    <t>Ulta Beauty</t>
+  </si>
+  <si>
+    <t>https://cdcmcareers-ulta.icims.com/jobs/278035/job?iis=Appcast&amp;iisn=AppcastIndeed&amp;mobile=false&amp;width=1152&amp;height=500&amp;bga=true&amp;needsRedirect=false&amp;jan1offset=-300&amp;jun1offset=-240</t>
+  </si>
+  <si>
+    <t>Member of Technical Staff, Backend</t>
+  </si>
+  <si>
+    <t>Runway</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/runwayml/jobs/4015509005?gh_src=51ff30ce5us</t>
+  </si>
+  <si>
+    <t>Senior Backend Software Engineer (AWS Lambda and Distributed Systems)</t>
+  </si>
+  <si>
+    <t>Piper Companies</t>
+  </si>
+  <si>
+    <t>https://careers.pipercompanies.com/details/122722/senior_backend_software_engineer_aws_lambda_and_distributed_systems#apply</t>
+  </si>
+  <si>
+    <t>Platform Engineer</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3965679241</t>
+  </si>
+  <si>
+    <t>Python Developer with AWS</t>
+  </si>
+  <si>
+    <t>Skywalk Global</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3965671220</t>
+  </si>
+  <si>
+    <t>myGwork - LGBTQ+ Business Community</t>
+  </si>
+  <si>
+    <t>https://www.mygwork.com/en/jobs/the-trade-desk-staff-software-engineer-17/detail/4879581/127139</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer - Full Stack</t>
+  </si>
+  <si>
+    <t>Bitcoin Depot</t>
+  </si>
+  <si>
+    <t>Get It Recruit - Information Technology</t>
+  </si>
+  <si>
+    <t>https://www.get.it/job/senior-software-engineer-full-stack-remote-wfh-in-atlanta-ga-at-get-it-recruit-information-technology-520643530834575395</t>
+  </si>
+  <si>
+    <t>Software Game Framework Developer C++</t>
+  </si>
+  <si>
+    <t>Ardent Blue Technologies</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3965680768</t>
+  </si>
+  <si>
+    <t>F1-OPT Software Engineer, Robot Cloud Platform (Full-Time)</t>
+  </si>
+  <si>
+    <t>Dexian Inc</t>
+  </si>
+  <si>
+    <t>https://dexianinc.zohorecruit.eu/jobs/Careers/55649000016827423/F1-OPT-Software-Engineer-Robot-Cloud-Platform-Full-Time?source=LinkedIn-Basic&amp;embedsource=LinkedIn%2BLimited%2BListings</t>
+  </si>
+  <si>
+    <t>Software Engineer, Robot Cloud Platform</t>
+  </si>
+  <si>
+    <t>Team Remotely Inc</t>
+  </si>
+  <si>
+    <t>https://teamremotely.zohorecruit.eu/jobs/Careers/64526000082258367/Software-Engineer-Robot-Cloud-Platform?source=LinkedIn-Basic&amp;embedsource=LinkedIn%2BLimited%2BListings</t>
+  </si>
+  <si>
+    <t>(OR-182) SOFTWARE ENGINEER</t>
+  </si>
+  <si>
+    <t>Smart Working</t>
+  </si>
+  <si>
+    <t>https://app.ismartrecruit.com/jobDescription?x=E7pc21hcnR3b3JraW5nLmlvXzU4NV9MSU5LRURJTg==Q9e</t>
+  </si>
+  <si>
+    <t>Staff Backend Engineer - Platform</t>
+  </si>
+  <si>
+    <t>Gather</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/gather/jobs/5008925004?gh_src=910e7ca14us</t>
+  </si>
+  <si>
+    <t>Unity3D C# Programmer</t>
+  </si>
+  <si>
+    <t>https://teamremotely.zohorecruit.eu/jobs/Careers/64526000082257953/Unity3D-C-Programmer?source=LinkedIn-Basic&amp;embedsource=LinkedIn%2BLimited%2BListings</t>
+  </si>
+  <si>
+    <t>Lirio</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/lirio/jobs/5981345003?gh_src=8671e9bb3us</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer, Backend</t>
+  </si>
+  <si>
+    <t>Respondology</t>
+  </si>
+  <si>
+    <t>https://respondology.bamboohr.com/careers/33?source=aWQ9MjE%3D</t>
+  </si>
+  <si>
+    <t>RSA Conference</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3968542846</t>
   </si>
 </sst>
 </file>
@@ -7869,6 +8082,15 @@
       <c r="C287" s="2" t="s">
         <v>816</v>
       </c>
+      <c r="G287" s="5">
+        <v>45468.0</v>
+      </c>
+      <c r="H287" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R287" s="5">
+        <v>45469.0</v>
+      </c>
       <c r="T287" s="6" t="s">
         <v>817</v>
       </c>
@@ -7897,6 +8119,9 @@
       <c r="C289" s="2" t="s">
         <v>822</v>
       </c>
+      <c r="R289" s="5">
+        <v>45470.0</v>
+      </c>
       <c r="T289" s="6" t="s">
         <v>823</v>
       </c>
@@ -7911,6 +8136,9 @@
       <c r="C290" s="2" t="s">
         <v>825</v>
       </c>
+      <c r="R290" s="5">
+        <v>45470.0</v>
+      </c>
       <c r="T290" s="6" t="s">
         <v>826</v>
       </c>
@@ -7939,87 +8167,382 @@
       <c r="C292" s="2" t="s">
         <v>831</v>
       </c>
+      <c r="R292" s="5">
+        <v>45469.0</v>
+      </c>
       <c r="T292" s="6" t="s">
         <v>832</v>
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="9"/>
+      <c r="A293" s="1">
+        <v>45473.0</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="T293" s="6" t="s">
+        <v>835</v>
+      </c>
     </row>
     <row r="294">
-      <c r="A294" s="9"/>
+      <c r="A294" s="1">
+        <v>45473.0</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="T294" s="6" t="s">
+        <v>838</v>
+      </c>
     </row>
     <row r="295">
-      <c r="A295" s="9"/>
+      <c r="A295" s="1">
+        <v>45473.0</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="T295" s="6" t="s">
+        <v>840</v>
+      </c>
     </row>
     <row r="296">
-      <c r="A296" s="9"/>
+      <c r="A296" s="1">
+        <v>45473.0</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="T296" s="6" t="s">
+        <v>842</v>
+      </c>
     </row>
     <row r="297">
-      <c r="A297" s="9"/>
+      <c r="A297" s="1">
+        <v>45474.0</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="T297" s="6" t="s">
+        <v>844</v>
+      </c>
     </row>
     <row r="298">
-      <c r="A298" s="9"/>
+      <c r="A298" s="1">
+        <v>45474.0</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="T298" s="6" t="s">
+        <v>847</v>
+      </c>
     </row>
     <row r="299">
-      <c r="A299" s="9"/>
+      <c r="A299" s="1">
+        <v>45474.0</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="T299" s="6" t="s">
+        <v>850</v>
+      </c>
     </row>
     <row r="300">
-      <c r="A300" s="9"/>
+      <c r="A300" s="1">
+        <v>45474.0</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="T300" s="6" t="s">
+        <v>853</v>
+      </c>
     </row>
     <row r="301">
-      <c r="A301" s="9"/>
+      <c r="A301" s="1">
+        <v>45474.0</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="T301" s="6" t="s">
+        <v>856</v>
+      </c>
     </row>
     <row r="302">
-      <c r="A302" s="9"/>
+      <c r="A302" s="1">
+        <v>45474.0</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="T302" s="6" t="s">
+        <v>859</v>
+      </c>
     </row>
     <row r="303">
-      <c r="A303" s="9"/>
+      <c r="A303" s="1">
+        <v>45474.0</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="T303" s="6" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="304">
-      <c r="A304" s="9"/>
+      <c r="A304" s="1">
+        <v>45474.0</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="T304" s="6" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="305">
-      <c r="A305" s="9"/>
+      <c r="A305" s="1">
+        <v>45475.0</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="T305" s="6" t="s">
+        <v>868</v>
+      </c>
     </row>
     <row r="306">
-      <c r="A306" s="9"/>
+      <c r="A306" s="1">
+        <v>45475.0</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="T306" s="6" t="s">
+        <v>870</v>
+      </c>
     </row>
     <row r="307">
-      <c r="A307" s="9"/>
+      <c r="A307" s="1">
+        <v>45475.0</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="T307" s="6" t="s">
+        <v>873</v>
+      </c>
     </row>
     <row r="308">
-      <c r="A308" s="9"/>
+      <c r="A308" s="1">
+        <v>45475.0</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="T308" s="4" t="s">
+        <v>875</v>
+      </c>
     </row>
     <row r="309">
-      <c r="A309" s="9"/>
+      <c r="A309" s="1">
+        <v>45475.0</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="T309" s="6" t="s">
+        <v>879</v>
+      </c>
     </row>
     <row r="310">
-      <c r="A310" s="9"/>
+      <c r="A310" s="1">
+        <v>45475.0</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="T310" s="6" t="s">
+        <v>882</v>
+      </c>
     </row>
     <row r="311">
-      <c r="A311" s="9"/>
+      <c r="A311" s="1">
+        <v>45475.0</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>883</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="T311" s="4" t="s">
+        <v>885</v>
+      </c>
     </row>
     <row r="312">
-      <c r="A312" s="9"/>
+      <c r="A312" s="1">
+        <v>45478.0</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="T312" s="6" t="s">
+        <v>888</v>
+      </c>
     </row>
     <row r="313">
-      <c r="A313" s="9"/>
+      <c r="A313" s="1">
+        <v>45478.0</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>890</v>
+      </c>
+      <c r="T313" s="6" t="s">
+        <v>891</v>
+      </c>
     </row>
     <row r="314">
-      <c r="A314" s="9"/>
+      <c r="A314" s="1">
+        <v>45478.0</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="T314" s="6" t="s">
+        <v>894</v>
+      </c>
     </row>
     <row r="315">
-      <c r="A315" s="9"/>
+      <c r="A315" s="1">
+        <v>45478.0</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="T315" s="6" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="316">
-      <c r="A316" s="9"/>
+      <c r="A316" s="1">
+        <v>45478.0</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="T316" s="6" t="s">
+        <v>898</v>
+      </c>
     </row>
     <row r="317">
-      <c r="A317" s="9"/>
+      <c r="A317" s="1">
+        <v>45478.0</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="R317" s="5">
+        <v>45479.0</v>
+      </c>
+      <c r="T317" s="6" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="318">
-      <c r="A318" s="9"/>
+      <c r="A318" s="1">
+        <v>45478.0</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="T318" s="6" t="s">
+        <v>903</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="9"/>
@@ -10467,7 +10990,34 @@
     <hyperlink r:id="rId273" ref="T290"/>
     <hyperlink r:id="rId274" ref="T291"/>
     <hyperlink r:id="rId275" ref="T292"/>
+    <hyperlink r:id="rId276" ref="T293"/>
+    <hyperlink r:id="rId277" ref="T294"/>
+    <hyperlink r:id="rId278" ref="T295"/>
+    <hyperlink r:id="rId279" ref="C296"/>
+    <hyperlink r:id="rId280" ref="T296"/>
+    <hyperlink r:id="rId281" ref="T297"/>
+    <hyperlink r:id="rId282" ref="T298"/>
+    <hyperlink r:id="rId283" ref="T299"/>
+    <hyperlink r:id="rId284" ref="T300"/>
+    <hyperlink r:id="rId285" ref="T301"/>
+    <hyperlink r:id="rId286" ref="T302"/>
+    <hyperlink r:id="rId287" ref="T303"/>
+    <hyperlink r:id="rId288" ref="T304"/>
+    <hyperlink r:id="rId289" location="apply" ref="T305"/>
+    <hyperlink r:id="rId290" ref="T306"/>
+    <hyperlink r:id="rId291" ref="T307"/>
+    <hyperlink r:id="rId292" ref="T308"/>
+    <hyperlink r:id="rId293" ref="T309"/>
+    <hyperlink r:id="rId294" ref="T310"/>
+    <hyperlink r:id="rId295" ref="T311"/>
+    <hyperlink r:id="rId296" ref="T312"/>
+    <hyperlink r:id="rId297" ref="T313"/>
+    <hyperlink r:id="rId298" ref="T314"/>
+    <hyperlink r:id="rId299" ref="T315"/>
+    <hyperlink r:id="rId300" ref="T316"/>
+    <hyperlink r:id="rId301" ref="T317"/>
+    <hyperlink r:id="rId302" ref="T318"/>
   </hyperlinks>
-  <drawing r:id="rId276"/>
+  <drawing r:id="rId303"/>
 </worksheet>
 </file>
--- a/Jesse - Job Applications 12_2023 - current.xlsx
+++ b/Jesse - Job Applications 12_2023 - current.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="920">
   <si>
     <t>Date</t>
   </si>
@@ -2724,6 +2724,54 @@
   </si>
   <si>
     <t>https://www.linkedin.com/jobs/view/3968542846</t>
+  </si>
+  <si>
+    <t>Staff Engineer - Digital Analytics (Remote) 24-08625</t>
+  </si>
+  <si>
+    <t>GTT, LLC</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/viewjob?jk=35223a327d111e03&amp;tk=1i2isjs5ujt3k80e&amp;from=jobi2a&amp;advn=813268777041816&amp;adid=416085447&amp;ad=-6NYlbfkN0Ci6abQPzZtnlIzpaPsmGvPJW6fwVsgLRdzrRle_KK1bJRd15Dztc0DTMWy20-b8OwaPrRmCmNAfZbUsBCaU8vTzvYfqluApmZ4O9AW0erCr8lg3q7KalaHJBdBPO3-XNvRYwak03XhCxryxO_H8rPmJDWqUnfP5x1PKc40Uq1YcN9q4xe1zmzQXTH-hF5bsQ88f7Zjk9JT5nIDplb7bdQfvnN4pS8ZN-9BU1sGh99oanVxCB9SAsAooACJPEcBrj2cu4q3wtdfRJkS3XfvOhpeJ6zOARGqxnkHPCX4Qn9eHSXeIMAUQdyqa-wVIDKXbeq0vOgZSyDjT2kLo4tzrA5B4Cf2Lm1N6uRFwM5R47Wyh06Vn3R1bxPf_PrTdo5gGKQivykbEBfnuUdWLWISu5ijr51soaOPGgTMR4wPsgv4X4yp6V1xcAcocQS-4XajLKLDfFxRytAQTr8H_D9ZK-h0ucH8ZQ7uqhzTu2_FziC0Ck76dKLNd7qnRkNzpRo5tBXDeNR71IuEw_chF8LmLTKMdDx_FF-ClJpBj9aDhOstt4B3R9O6Nq9WZUiZE2m13FNcjI_y4jbucQ%3D%3D&amp;sjdu=W0jaj0pTY_BDBE_MIyOcneEuVP8WUUyP4TIe8fxBRyGY1R9DH7c0Slu1D1C06JAuflYHd4yhEJL4rYOd9vXJ5uGT_0WpvYPSAQvvRLnkUYq4wBE3QnIijluRGB60OzNxsNuDO5-cCxPuVryj0sN2gjzjoc1rCwCpKsnKnUyXquQ6C7eJOH9pj90n3G-1Ty8ITJVmBt4gCyG-7jNWwAoOgPpCzVQqPnpSWHjA7fJHBeqoin_KLSGMNG06dYiWMK1iDirFyCdWrPjyQG2nsef6MQ&amp;acatk=1i2jhip0vkblb801&amp;pub=21d85ca573e478f5e659e48885c828920cace3277f6b99df&amp;i2af=jobi2a_jobmatch-en-US_email&amp;camk=f416UQcMBpBehSQMgoBbVA%3D%3D&amp;jrtk=5-cmh1-1-1i2irgok2go8h803-35223a327d111e03&amp;xkcb=SoBS6_M3-TrE-62C7x0IbzkdCdPP&amp;xpse=SoCf6_I3-TrE-62C7x0PbzkdCdPP&amp;xfps=334d7ab3-649c-43b7-b4b6-c0a6934007ac</t>
+  </si>
+  <si>
+    <t>Taskrabbit</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3976857344</t>
+  </si>
+  <si>
+    <t>Senior Full Stack</t>
+  </si>
+  <si>
+    <t>YouPersona</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3973321380</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer; Platform</t>
+  </si>
+  <si>
+    <t>Beam Benefits</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3973324257</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golang Developer </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3973318811</t>
+  </si>
+  <si>
+    <t>Senior Back-end Node JS Developer with AWS (Remote)</t>
+  </si>
+  <si>
+    <t>Cognizant</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;fromage=1&amp;sort=date&amp;vjk=260457eafa9434ad</t>
   </si>
 </sst>
 </file>
@@ -7956,6 +8004,9 @@
       <c r="C278" s="2" t="s">
         <v>673</v>
       </c>
+      <c r="R278" s="5">
+        <v>45484.0</v>
+      </c>
       <c r="T278" s="6" t="s">
         <v>792</v>
       </c>
@@ -7970,6 +8021,9 @@
       <c r="C279" s="2" t="s">
         <v>794</v>
       </c>
+      <c r="R279" s="5">
+        <v>45484.0</v>
+      </c>
       <c r="T279" s="6" t="s">
         <v>795</v>
       </c>
@@ -8184,6 +8238,9 @@
       <c r="C293" s="2" t="s">
         <v>834</v>
       </c>
+      <c r="R293" s="5">
+        <v>45485.0</v>
+      </c>
       <c r="T293" s="6" t="s">
         <v>835</v>
       </c>
@@ -8324,6 +8381,9 @@
       <c r="C303" s="2" t="s">
         <v>861</v>
       </c>
+      <c r="R303" s="5">
+        <v>45483.0</v>
+      </c>
       <c r="T303" s="6" t="s">
         <v>862</v>
       </c>
@@ -8481,6 +8541,9 @@
       <c r="C314" s="2" t="s">
         <v>893</v>
       </c>
+      <c r="R314" s="5">
+        <v>45483.0</v>
+      </c>
       <c r="T314" s="6" t="s">
         <v>894</v>
       </c>
@@ -8545,22 +8608,88 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="9"/>
+      <c r="A319" s="1">
+        <v>45485.0</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>904</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="T319" s="2" t="s">
+        <v>906</v>
+      </c>
     </row>
     <row r="320">
-      <c r="A320" s="9"/>
+      <c r="A320" s="1">
+        <v>45488.0</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="T320" s="6" t="s">
+        <v>908</v>
+      </c>
     </row>
     <row r="321">
-      <c r="A321" s="9"/>
+      <c r="A321" s="1">
+        <v>45488.0</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="T321" s="6" t="s">
+        <v>911</v>
+      </c>
     </row>
     <row r="322">
-      <c r="A322" s="9"/>
+      <c r="A322" s="1">
+        <v>45488.0</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>912</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="T322" s="6" t="s">
+        <v>914</v>
+      </c>
     </row>
     <row r="323">
-      <c r="A323" s="9"/>
+      <c r="A323" s="1">
+        <v>45488.0</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="T323" s="6" t="s">
+        <v>916</v>
+      </c>
     </row>
     <row r="324">
-      <c r="A324" s="9"/>
+      <c r="A324" s="1">
+        <v>45488.0</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>918</v>
+      </c>
+      <c r="T324" s="6" t="s">
+        <v>919</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="9"/>
@@ -11017,7 +11146,12 @@
     <hyperlink r:id="rId300" ref="T316"/>
     <hyperlink r:id="rId301" ref="T317"/>
     <hyperlink r:id="rId302" ref="T318"/>
+    <hyperlink r:id="rId303" ref="T320"/>
+    <hyperlink r:id="rId304" ref="T321"/>
+    <hyperlink r:id="rId305" ref="T322"/>
+    <hyperlink r:id="rId306" ref="T323"/>
+    <hyperlink r:id="rId307" ref="T324"/>
   </hyperlinks>
-  <drawing r:id="rId303"/>
+  <drawing r:id="rId308"/>
 </worksheet>
 </file>
--- a/Jesse - Job Applications 12_2023 - current.xlsx
+++ b/Jesse - Job Applications 12_2023 - current.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="920">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="976">
   <si>
     <t>Date</t>
   </si>
@@ -2772,6 +2772,174 @@
   </si>
   <si>
     <t>https://www.indeed.com/jobs?q=node.js&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;fromage=1&amp;sort=date&amp;vjk=260457eafa9434ad</t>
+  </si>
+  <si>
+    <t>Remote Full-Stack TypeScript Engineer</t>
+  </si>
+  <si>
+    <t>Pillser</t>
+  </si>
+  <si>
+    <t>https://pillser.com/careers/remote-full-stack-typescript-engineer</t>
+  </si>
+  <si>
+    <t>Remote Senior Full Stack Engineer (Rails/Nuxt, 100% Remote)</t>
+  </si>
+  <si>
+    <t>LegalNature</t>
+  </si>
+  <si>
+    <t>https://jobs.legalnature.com/31069</t>
+  </si>
+  <si>
+    <t>Jr. Backend Developer</t>
+  </si>
+  <si>
+    <t>NWS</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software+engineer&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;fromage=1&amp;sort=date&amp;vjk=4e71d00c01e6057f</t>
+  </si>
+  <si>
+    <t>Full Stack Java Engineer</t>
+  </si>
+  <si>
+    <t>Mutual of Omaha</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software+engineer&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;fromage=1&amp;sort=date&amp;vjk=fdad5a18f9a99ad2&amp;advn=8636134113550932</t>
+  </si>
+  <si>
+    <t>C# Developer</t>
+  </si>
+  <si>
+    <t>Graphics Software Engineer</t>
+  </si>
+  <si>
+    <t>Fresh Consulting</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software+engineer&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;sort=date&amp;fromage=1&amp;start=10&amp;vjk=da2222df2579b0ab</t>
+  </si>
+  <si>
+    <t>Full Stack Software Engineer</t>
+  </si>
+  <si>
+    <t>Modern Technology Solutions, Inc.</t>
+  </si>
+  <si>
+    <t>https://careers.mtsi-va.com/job/-/-/38810/67601636256?mode=job&amp;iis=Job+Board+-+Indeed.com&amp;iisn=Indeed.com</t>
+  </si>
+  <si>
+    <t>MTS1 Software Engineer, Backend</t>
+  </si>
+  <si>
+    <t>https://jobs.ebayinc.com/us/en/job/EBAEBAUSR0063751EXTERNALENUS/MTS1-Software-Engineer-Backend?utm_source=Appcast_Indeed_o&amp;ccuid=55291541927&amp;ittk=QXAY1ON2CL</t>
+  </si>
+  <si>
+    <t>Senior Backend Engineer, Acquisition and App Experience</t>
+  </si>
+  <si>
+    <t>Postscript</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software+engineer&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;sort=date&amp;fromage=1&amp;start=20&amp;vjk=cfb247b71be97cb1</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer, Monetization</t>
+  </si>
+  <si>
+    <t>Vimeo</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/vimeo/jobs/6107769?gh_src=fb15c0d61us</t>
+  </si>
+  <si>
+    <t>Groundswell</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3962431305</t>
+  </si>
+  <si>
+    <t>Back End Engineer (Remote)</t>
+  </si>
+  <si>
+    <t>Minware</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/minware/jobs/4443526005?gh_src=130dd41f5us</t>
+  </si>
+  <si>
+    <t>Sr./Staff Software Engineer [backend| ML]</t>
+  </si>
+  <si>
+    <t>Machinify</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3961094335</t>
+  </si>
+  <si>
+    <t>Junior ​Full Stack Web Developer</t>
+  </si>
+  <si>
+    <t>Patterned Learning Career</t>
+  </si>
+  <si>
+    <t>https://patternedlearning.zohorecruit.com/jobs/Careers/750273000053746383/Junior-%E2%80%8BFull-Stack-Web-Developer?source=LinkedIn-Basic&amp;embedsource=LinkedIn%2BLimited%2BListings</t>
+  </si>
+  <si>
+    <t>Staff Full Stack Software Engineer - Poe Core Product (Remote)</t>
+  </si>
+  <si>
+    <t>Quora</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3965706047</t>
+  </si>
+  <si>
+    <t>Founding Backend Engineer</t>
+  </si>
+  <si>
+    <t>Sublime</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3975025071</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, LLVM</t>
+  </si>
+  <si>
+    <t>Fabric</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3927230087</t>
+  </si>
+  <si>
+    <t>Entry Level Software Developer (Remote)</t>
+  </si>
+  <si>
+    <t>SynergisticIT</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/entry-level-software-developer-remote-at-synergisticit-3818362657/?utm_campaign=google_jobs_apply&amp;utm_source=google_jobs_apply&amp;utm_medium=organic</t>
+  </si>
+  <si>
+    <t>Associate Software Engineer I in Chattanooga, Tennessee</t>
+  </si>
+  <si>
+    <t>BCBST</t>
+  </si>
+  <si>
+    <t>https://bcbst.dejobs.org/chattanooga-tn/associate-software-engineer-i/82E8359990A94CE8AF76CDA9FFCBFB60/job/?utm_campaign=google_jobs_apply&amp;utm_medium=organic&amp;utm_source=google_jobs_apply</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer</t>
+  </si>
+  <si>
+    <t>U.S. Xpress</t>
+  </si>
+  <si>
+    <t>https://usxpressdevelopment.csod.com/ux/ats/careersite/4/home/requisition/4161?c=usxpressdevelopment&amp;source=LinkedIn</t>
   </si>
 </sst>
 </file>
@@ -8692,64 +8860,284 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="9"/>
+      <c r="A325" s="1">
+        <v>45488.0</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>920</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>921</v>
+      </c>
+      <c r="T325" s="6" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="326">
-      <c r="A326" s="9"/>
+      <c r="A326" s="1">
+        <v>45488.0</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="T326" s="4" t="s">
+        <v>925</v>
+      </c>
     </row>
     <row r="327">
-      <c r="A327" s="9"/>
+      <c r="A327" s="1">
+        <v>45489.0</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>926</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="R327" s="5">
+        <v>45489.0</v>
+      </c>
+      <c r="T327" s="6" t="s">
+        <v>928</v>
+      </c>
     </row>
     <row r="328">
-      <c r="A328" s="9"/>
+      <c r="A328" s="1">
+        <v>45489.0</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>929</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>930</v>
+      </c>
+      <c r="T328" s="6" t="s">
+        <v>931</v>
+      </c>
     </row>
     <row r="329">
-      <c r="A329" s="9"/>
+      <c r="A329" s="1">
+        <v>45489.0</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>932</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>509</v>
+      </c>
     </row>
     <row r="330">
-      <c r="A330" s="9"/>
+      <c r="A330" s="1">
+        <v>45489.0</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>934</v>
+      </c>
+      <c r="T330" s="6" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="331">
-      <c r="A331" s="9"/>
+      <c r="A331" s="1">
+        <v>45489.0</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="T331" s="6" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="332">
-      <c r="A332" s="9"/>
+      <c r="A332" s="1">
+        <v>45489.0</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="T332" s="6" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="333">
-      <c r="A333" s="9"/>
+      <c r="A333" s="1">
+        <v>45489.0</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>942</v>
+      </c>
+      <c r="T333" s="6" t="s">
+        <v>943</v>
+      </c>
     </row>
     <row r="334">
-      <c r="A334" s="9"/>
+      <c r="A334" s="1">
+        <v>45489.0</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>944</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="T334" s="6" t="s">
+        <v>946</v>
+      </c>
     </row>
     <row r="335">
-      <c r="A335" s="9"/>
+      <c r="A335" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="T335" s="6" t="s">
+        <v>948</v>
+      </c>
     </row>
     <row r="336">
-      <c r="A336" s="9"/>
+      <c r="A336" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="T336" s="4" t="s">
+        <v>951</v>
+      </c>
     </row>
     <row r="337">
-      <c r="A337" s="9"/>
+      <c r="A337" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>953</v>
+      </c>
+      <c r="T337" s="6" t="s">
+        <v>954</v>
+      </c>
     </row>
     <row r="338">
-      <c r="A338" s="9"/>
+      <c r="A338" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>955</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="T338" s="6" t="s">
+        <v>957</v>
+      </c>
     </row>
     <row r="339">
-      <c r="A339" s="9"/>
+      <c r="A339" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>959</v>
+      </c>
+      <c r="T339" s="6" t="s">
+        <v>960</v>
+      </c>
     </row>
     <row r="340">
-      <c r="A340" s="9"/>
+      <c r="A340" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>961</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="T340" s="6" t="s">
+        <v>963</v>
+      </c>
     </row>
     <row r="341">
-      <c r="A341" s="9"/>
+      <c r="A341" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>965</v>
+      </c>
+      <c r="T341" s="6" t="s">
+        <v>966</v>
+      </c>
     </row>
     <row r="342">
-      <c r="A342" s="9"/>
+      <c r="A342" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="T342" s="6" t="s">
+        <v>969</v>
+      </c>
     </row>
     <row r="343">
-      <c r="A343" s="9"/>
+      <c r="A343" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>971</v>
+      </c>
+      <c r="T343" s="4" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="344">
-      <c r="A344" s="9"/>
+      <c r="A344" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>973</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="T344" s="6" t="s">
+        <v>975</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="9"/>
@@ -11151,7 +11539,26 @@
     <hyperlink r:id="rId305" ref="T322"/>
     <hyperlink r:id="rId306" ref="T323"/>
     <hyperlink r:id="rId307" ref="T324"/>
+    <hyperlink r:id="rId308" ref="T325"/>
+    <hyperlink r:id="rId309" ref="T326"/>
+    <hyperlink r:id="rId310" ref="T327"/>
+    <hyperlink r:id="rId311" ref="T328"/>
+    <hyperlink r:id="rId312" ref="T330"/>
+    <hyperlink r:id="rId313" ref="T331"/>
+    <hyperlink r:id="rId314" ref="T332"/>
+    <hyperlink r:id="rId315" ref="T333"/>
+    <hyperlink r:id="rId316" ref="T334"/>
+    <hyperlink r:id="rId317" ref="T335"/>
+    <hyperlink r:id="rId318" ref="T336"/>
+    <hyperlink r:id="rId319" ref="T337"/>
+    <hyperlink r:id="rId320" ref="T338"/>
+    <hyperlink r:id="rId321" ref="T339"/>
+    <hyperlink r:id="rId322" ref="T340"/>
+    <hyperlink r:id="rId323" ref="T341"/>
+    <hyperlink r:id="rId324" ref="T342"/>
+    <hyperlink r:id="rId325" ref="T343"/>
+    <hyperlink r:id="rId326" ref="T344"/>
   </hyperlinks>
-  <drawing r:id="rId308"/>
+  <drawing r:id="rId327"/>
 </worksheet>
 </file>
--- a/Jesse - Job Applications 12_2023 - current.xlsx
+++ b/Jesse - Job Applications 12_2023 - current.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1038">
   <si>
     <t>Date</t>
   </si>
@@ -2756,6 +2756,9 @@
     <t>Beam Benefits</t>
   </si>
   <si>
+    <t>Code Kata</t>
+  </si>
+  <si>
     <t>https://www.linkedin.com/jobs/view/3973324257</t>
   </si>
   <si>
@@ -2940,6 +2943,189 @@
   </si>
   <si>
     <t>https://usxpressdevelopment.csod.com/ux/ats/careersite/4/home/requisition/4161?c=usxpressdevelopment&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Expedition Co.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3977260261</t>
+  </si>
+  <si>
+    <t>Neural</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3977315841</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Infrastructure (Remote)</t>
+  </si>
+  <si>
+    <t>The Athletic</t>
+  </si>
+  <si>
+    <t>https://www.offered.ai/jobs/cly3wn3cb02h68t0nu0zpt7bn</t>
+  </si>
+  <si>
+    <t>Web3 Fullstack Developer (Solana) || $150K - $500K Remote - Worldwide</t>
+  </si>
+  <si>
+    <t>Call For Referral</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3975042428</t>
+  </si>
+  <si>
+    <t>Distinguished Software Engineer</t>
+  </si>
+  <si>
+    <t>HarperDB, Inc.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3979343475</t>
+  </si>
+  <si>
+    <t>Senior Gameplay Engineer - Raven Software - Remote Eligible</t>
+  </si>
+  <si>
+    <t>CareDx, Inc.</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/ezcaterinc/jobs/4247577007?gh_src=a882cb547us&amp;source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Senior Full Stack Engineer (Blockchain)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CryptoRecruit </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3960181652</t>
+  </si>
+  <si>
+    <t>Fullstack Software Engineer</t>
+  </si>
+  <si>
+    <t>Angle Health</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3979335730</t>
+  </si>
+  <si>
+    <t>Backend Developer (Remote)</t>
+  </si>
+  <si>
+    <t>Gyga Force</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3976361668</t>
+  </si>
+  <si>
+    <t>Senior Full Stack Software Engineer | REMOTE</t>
+  </si>
+  <si>
+    <t>Distru</t>
+  </si>
+  <si>
+    <t>https://www.offered.ai/jobs/clvq6291b010j1f9o0fq4g845</t>
+  </si>
+  <si>
+    <t>Senior Front-End Engineer</t>
+  </si>
+  <si>
+    <t>StrongDM</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3979020925</t>
+  </si>
+  <si>
+    <t>Arrive Health</t>
+  </si>
+  <si>
+    <t>https://ats.rippling.com/arrive-health-careers/jobs/a36b0dd8-701d-41e0-888e-68f78708deea?jobSite=LinkedIn</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer - Observability - App Platform (Remote, NASA)</t>
+  </si>
+  <si>
+    <t>Grafana Labs</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/grafanalabs/jobs/5233526004</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Platform (US)</t>
+  </si>
+  <si>
+    <t>StarTree</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/startree/jobs/5222037004</t>
+  </si>
+  <si>
+    <t>Senior Backend Engineer - Rust</t>
+  </si>
+  <si>
+    <t>MNTN</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/mntn/jobs/6126126?gh_src=ade0e3491us#app</t>
+  </si>
+  <si>
+    <t>Lead Developer - Hyrecar</t>
+  </si>
+  <si>
+    <t>Getaround</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3980098402</t>
+  </si>
+  <si>
+    <t>Senior Full Stack Engineer - Capital One Software (Remote)</t>
+  </si>
+  <si>
+    <t>https://www.capitalonecareers.com/job/-/-/234/67390239696?p_sid=I3b0H7b&amp;p_uid=YGigpHfjqI&amp;source=rd_linkedin_job_posting_tm&amp;ss=paid&amp;utm_campaign=tech_24&amp;utm_content=pj_board&amp;utm_medium=jobad&amp;utm_source=linkedin+slotted&amp;dclid=COOH2qOmvYcDFefTuAgdWdgAOg</t>
+  </si>
+  <si>
+    <t>Senior Engineer $200K – $250k</t>
+  </si>
+  <si>
+    <t>Amicus</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3982943668</t>
+  </si>
+  <si>
+    <t>Sr. Engineer II - Cloud Platform (Remote)</t>
+  </si>
+  <si>
+    <t>CrowdStrike</t>
+  </si>
+  <si>
+    <t>Customer Experience - Full-Stack Software Engineer (RCM)</t>
+  </si>
+  <si>
+    <t>GeneDx</t>
+  </si>
+  <si>
+    <t>https://www.genedx.com/careers/?gh_jid=4447451005&amp;gh_src=188e3fe55us</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Marketing Technology</t>
+  </si>
+  <si>
+    <t>GameChanger</t>
+  </si>
+  <si>
+    <t>https://jobs.ashbyhq.com/gamechanger/bfdbef6c-9cfd-4817-9f2b-b982c1d69f7c?utm_source=WnPNpVYelj</t>
+  </si>
+  <si>
+    <t>Software Engineer Principal (Remote)</t>
+  </si>
+  <si>
+    <t>Home Depot / THD</t>
+  </si>
+  <si>
+    <t>https://careers.homedepot.com/job/20748615/software-engineer-principal-remote-remote/?source=10588&amp;codes=1-INDEED</t>
   </si>
 </sst>
 </file>
@@ -5795,6 +5981,9 @@
       <c r="C118" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="R118" s="5">
+        <v>45491.0</v>
+      </c>
       <c r="T118" s="6" t="s">
         <v>362</v>
       </c>
@@ -7556,6 +7745,9 @@
       <c r="C237" s="2" t="s">
         <v>685</v>
       </c>
+      <c r="R237" s="5">
+        <v>45492.0</v>
+      </c>
       <c r="T237" s="4" t="s">
         <v>686</v>
       </c>
@@ -8639,6 +8831,9 @@
       <c r="D309" s="2" t="s">
         <v>878</v>
       </c>
+      <c r="R309" s="5">
+        <v>45490.0</v>
+      </c>
       <c r="T309" s="6" t="s">
         <v>879</v>
       </c>
@@ -8799,6 +8994,9 @@
       <c r="C320" s="2" t="s">
         <v>907</v>
       </c>
+      <c r="R320" s="5">
+        <v>45491.0</v>
+      </c>
       <c r="T320" s="6" t="s">
         <v>908</v>
       </c>
@@ -8827,8 +9025,17 @@
       <c r="C322" s="2" t="s">
         <v>913</v>
       </c>
+      <c r="E322" s="5">
+        <v>45491.0</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="G322" s="5">
+        <v>45492.0</v>
+      </c>
       <c r="T322" s="6" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="323">
@@ -8836,13 +9043,13 @@
         <v>45488.0</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>663</v>
       </c>
       <c r="T323" s="6" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="324">
@@ -8850,13 +9057,13 @@
         <v>45488.0</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="T324" s="6" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="325">
@@ -8864,13 +9071,13 @@
         <v>45488.0</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="T325" s="6" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="326">
@@ -8878,13 +9085,13 @@
         <v>45488.0</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="T326" s="4" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="327">
@@ -8892,16 +9099,16 @@
         <v>45489.0</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="R327" s="5">
         <v>45489.0</v>
       </c>
       <c r="T327" s="6" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="328">
@@ -8909,13 +9116,13 @@
         <v>45489.0</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="T328" s="6" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="329">
@@ -8923,7 +9130,7 @@
         <v>45489.0</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>509</v>
@@ -8934,13 +9141,13 @@
         <v>45489.0</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="T330" s="6" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="331">
@@ -8948,13 +9155,13 @@
         <v>45489.0</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="T331" s="6" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="332">
@@ -8962,13 +9169,13 @@
         <v>45489.0</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>671</v>
       </c>
       <c r="T332" s="6" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="333">
@@ -8976,13 +9183,16 @@
         <v>45489.0</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>942</v>
+        <v>943</v>
+      </c>
+      <c r="R333" s="5">
+        <v>45494.0</v>
       </c>
       <c r="T333" s="6" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="334">
@@ -8990,13 +9200,13 @@
         <v>45489.0</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="T334" s="6" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="335">
@@ -9007,10 +9217,10 @@
         <v>214</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="T335" s="6" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="336">
@@ -9018,13 +9228,13 @@
         <v>45490.0</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="T336" s="4" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="337">
@@ -9032,13 +9242,13 @@
         <v>45490.0</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="T337" s="6" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="338">
@@ -9046,13 +9256,13 @@
         <v>45490.0</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="T338" s="6" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="339">
@@ -9060,13 +9270,16 @@
         <v>45490.0</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>959</v>
+        <v>960</v>
+      </c>
+      <c r="R339" s="5">
+        <v>45495.0</v>
       </c>
       <c r="T339" s="6" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="340">
@@ -9074,13 +9287,13 @@
         <v>45490.0</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="T340" s="6" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="341">
@@ -9088,13 +9301,13 @@
         <v>45490.0</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="T341" s="6" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="342">
@@ -9102,13 +9315,13 @@
         <v>45490.0</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="T342" s="6" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="343">
@@ -9116,13 +9329,13 @@
         <v>45490.0</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="T343" s="4" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="344">
@@ -9130,80 +9343,322 @@
         <v>45490.0</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="T344" s="6" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="9"/>
+      <c r="A345" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="R345" s="5">
+        <v>45494.0</v>
+      </c>
+      <c r="T345" s="4" t="s">
+        <v>978</v>
+      </c>
     </row>
     <row r="346">
-      <c r="A346" s="9"/>
+      <c r="A346" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="T346" s="6" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="347">
-      <c r="A347" s="9"/>
+      <c r="A347" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>982</v>
+      </c>
+      <c r="T347" s="6" t="s">
+        <v>983</v>
+      </c>
     </row>
     <row r="348">
-      <c r="A348" s="9"/>
+      <c r="A348" s="1">
+        <v>45490.0</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="T348" s="6" t="s">
+        <v>986</v>
+      </c>
     </row>
     <row r="349">
-      <c r="A349" s="9"/>
+      <c r="A349" s="1">
+        <v>45491.0</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>987</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>988</v>
+      </c>
+      <c r="T349" s="6" t="s">
+        <v>989</v>
+      </c>
     </row>
     <row r="350">
-      <c r="A350" s="9"/>
+      <c r="A350" s="1">
+        <v>45491.0</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="T350" s="4" t="s">
+        <v>992</v>
+      </c>
     </row>
     <row r="351">
-      <c r="A351" s="9"/>
+      <c r="A351" s="1">
+        <v>45491.0</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="T351" s="6" t="s">
+        <v>995</v>
+      </c>
     </row>
     <row r="352">
-      <c r="A352" s="9"/>
+      <c r="A352" s="1">
+        <v>45491.0</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="T352" s="6" t="s">
+        <v>998</v>
+      </c>
     </row>
     <row r="353">
-      <c r="A353" s="9"/>
+      <c r="A353" s="1">
+        <v>45491.0</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="T353" s="6" t="s">
+        <v>1001</v>
+      </c>
     </row>
     <row r="354">
-      <c r="A354" s="9"/>
+      <c r="A354" s="1">
+        <v>45491.0</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>1003</v>
+      </c>
+      <c r="T354" s="4" t="s">
+        <v>1004</v>
+      </c>
     </row>
     <row r="355">
-      <c r="A355" s="9"/>
+      <c r="A355" s="1">
+        <v>45491.0</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="T355" s="6" t="s">
+        <v>1007</v>
+      </c>
     </row>
     <row r="356">
-      <c r="A356" s="9"/>
+      <c r="A356" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="T356" s="6" t="s">
+        <v>1009</v>
+      </c>
     </row>
     <row r="357">
-      <c r="A357" s="9"/>
+      <c r="A357" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>1011</v>
+      </c>
+      <c r="T357" s="4" t="s">
+        <v>1012</v>
+      </c>
     </row>
     <row r="358">
-      <c r="A358" s="9"/>
+      <c r="A358" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="T358" s="6" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="359">
-      <c r="A359" s="9"/>
+      <c r="A359" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>1017</v>
+      </c>
+      <c r="T359" s="6" t="s">
+        <v>1018</v>
+      </c>
     </row>
     <row r="360">
-      <c r="A360" s="9"/>
+      <c r="A360" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>1020</v>
+      </c>
+      <c r="T360" s="6" t="s">
+        <v>1021</v>
+      </c>
     </row>
     <row r="361">
-      <c r="A361" s="9"/>
+      <c r="A361" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="T361" s="4" t="s">
+        <v>1023</v>
+      </c>
     </row>
     <row r="362">
-      <c r="A362" s="9"/>
+      <c r="A362" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>1025</v>
+      </c>
+      <c r="T362" s="6" t="s">
+        <v>1026</v>
+      </c>
     </row>
     <row r="363">
-      <c r="A363" s="9"/>
+      <c r="A363" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1028</v>
+      </c>
     </row>
     <row r="364">
-      <c r="A364" s="9"/>
+      <c r="A364" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>1030</v>
+      </c>
+      <c r="T364" s="4" t="s">
+        <v>1031</v>
+      </c>
     </row>
     <row r="365">
-      <c r="A365" s="9"/>
+      <c r="A365" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="T365" s="6" t="s">
+        <v>1034</v>
+      </c>
     </row>
     <row r="366">
-      <c r="A366" s="9"/>
+      <c r="A366" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="T366" s="6" t="s">
+        <v>1037</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="9"/>
@@ -11558,7 +12013,28 @@
     <hyperlink r:id="rId324" ref="T342"/>
     <hyperlink r:id="rId325" ref="T343"/>
     <hyperlink r:id="rId326" ref="T344"/>
+    <hyperlink r:id="rId327" ref="T345"/>
+    <hyperlink r:id="rId328" ref="T346"/>
+    <hyperlink r:id="rId329" ref="T347"/>
+    <hyperlink r:id="rId330" ref="T348"/>
+    <hyperlink r:id="rId331" ref="T349"/>
+    <hyperlink r:id="rId332" ref="T350"/>
+    <hyperlink r:id="rId333" ref="T351"/>
+    <hyperlink r:id="rId334" ref="T352"/>
+    <hyperlink r:id="rId335" ref="T353"/>
+    <hyperlink r:id="rId336" ref="T354"/>
+    <hyperlink r:id="rId337" ref="T355"/>
+    <hyperlink r:id="rId338" ref="T356"/>
+    <hyperlink r:id="rId339" ref="T357"/>
+    <hyperlink r:id="rId340" ref="T358"/>
+    <hyperlink r:id="rId341" location="app" ref="T359"/>
+    <hyperlink r:id="rId342" ref="T360"/>
+    <hyperlink r:id="rId343" ref="T361"/>
+    <hyperlink r:id="rId344" ref="T362"/>
+    <hyperlink r:id="rId345" ref="T364"/>
+    <hyperlink r:id="rId346" ref="T365"/>
+    <hyperlink r:id="rId347" ref="T366"/>
   </hyperlinks>
-  <drawing r:id="rId327"/>
+  <drawing r:id="rId348"/>
 </worksheet>
 </file>
--- a/Jesse - Job Applications 12_2023 - current.xlsx
+++ b/Jesse - Job Applications 12_2023 - current.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1112">
   <si>
     <t>Date</t>
   </si>
@@ -3126,6 +3126,228 @@
   </si>
   <si>
     <t>https://careers.homedepot.com/job/20748615/software-engineer-principal-remote-remote/?source=10588&amp;codes=1-INDEED</t>
+  </si>
+  <si>
+    <t>Software Engineer 55331-1</t>
+  </si>
+  <si>
+    <t>Rakesh Kumar &lt;rakesh.kumar@iconma.com&gt;</t>
+  </si>
+  <si>
+    <t>Backend Developer (Remote Option)</t>
+  </si>
+  <si>
+    <t>Trinnex</t>
+  </si>
+  <si>
+    <t>https://sjobs.brassring.com/TGnewUI/Search/home/HomeWithPreLoad?PageType=JobDetails&amp;partnerid=25038&amp;siteid=5415&amp;jobId=1588357#jobDetails=1588357_5415</t>
+  </si>
+  <si>
+    <t>Integra Connect</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3983533416</t>
+  </si>
+  <si>
+    <t>https://www.phattrienkynang.page/2024/07/senior-full-stack-developer.html</t>
+  </si>
+  <si>
+    <t>Staff Full Stack Software Engineer - Poe Creators (Remote)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3965707079</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer (VR Generalist)</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>https://wellfound.com/jobs/2002503-senior-software-engineer-vr-generalist?utm_campaign=linkedin_syndication&amp;utm_source=linkedin</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer (Java) for Ingestion – Scalable Columnar Database</t>
+  </si>
+  <si>
+    <t>SentinelOne</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=rust&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=5380801b547f1dff</t>
+  </si>
+  <si>
+    <t>Sr Software Engineer (Xpanse) - Remote</t>
+  </si>
+  <si>
+    <t>Palo Alto Networks</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=rust&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=d5001cdae3668904</t>
+  </si>
+  <si>
+    <t>Sr. Frontend Developer (Remote, 4 day/32 hr Week)</t>
+  </si>
+  <si>
+    <t>Spider Strategies</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=rust&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=454bad699826b520&amp;advn=6400383799409803</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer, Frontend, Design System</t>
+  </si>
+  <si>
+    <t>https://jobs.jobvite.com/careers/splunk-careers/job/onwltfwr?__jvst=Job%20Board&amp;__jvsd=Indeed</t>
+  </si>
+  <si>
+    <t>Karsun Solutions, LLC</t>
+  </si>
+  <si>
+    <t>https://www.karsuncareers.com/jobs/3523/job?utm_source=indeed_integration&amp;iis=Job%20Board&amp;iisn=Indeed&amp;indeed-apply-token=73a2d2b2a8d6d5c0a62696875eaebd669103652d3f0c2cd5445d3e66b1592b0f&amp;mode=job&amp;iis=Job+Board&amp;iisn=Indeed.com</t>
+  </si>
+  <si>
+    <t>Remote Software Engineer II</t>
+  </si>
+  <si>
+    <t>Rightstone</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;fromage=1&amp;sort=date&amp;vjk=bf7655147f59be81&amp;advn=3049503054451325</t>
+  </si>
+  <si>
+    <t>Ruby on Rails Developer</t>
+  </si>
+  <si>
+    <t>Bixal</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/bixal/5aa9c289-8e91-492a-ad3d-9dc184b0eb2e?lever-source=Indeed</t>
+  </si>
+  <si>
+    <t>Western Milling</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=ruby+on+rails&amp;l=Remote&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;radius=50&amp;fromage=1&amp;sort=date&amp;vjk=bd56424833a04571</t>
+  </si>
+  <si>
+    <t>Orum</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3984965324</t>
+  </si>
+  <si>
+    <t>Senior Backend Software Engineer - Core Team</t>
+  </si>
+  <si>
+    <t>Sirona Medical</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3984977768</t>
+  </si>
+  <si>
+    <t>Remote Full Stack Software Engineer</t>
+  </si>
+  <si>
+    <t>SerpApi</t>
+  </si>
+  <si>
+    <t>https://serpapi.com/careers/senior-fullstack-engineer</t>
+  </si>
+  <si>
+    <t>ECP</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3983660178</t>
+  </si>
+  <si>
+    <t>Lead Developer, Pharmacy Management System</t>
+  </si>
+  <si>
+    <t>LifeMD</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3973999705</t>
+  </si>
+  <si>
+    <t>VS Code Developer to Lead Development of RTOS IDE</t>
+  </si>
+  <si>
+    <t>Lynx Software Technologies</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3910547384</t>
+  </si>
+  <si>
+    <t>QIS Instrument Interface Developer</t>
+  </si>
+  <si>
+    <t>Smart Bot Systems LLC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3960156125</t>
+  </si>
+  <si>
+    <t>React/Node/AWS Developer</t>
+  </si>
+  <si>
+    <t>Resource Informatics Group, Inc</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3984548458</t>
+  </si>
+  <si>
+    <t>Underdog.io</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3986509907</t>
+  </si>
+  <si>
+    <t>Software Engineer, Platform</t>
+  </si>
+  <si>
+    <t>Metronome</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3985518053</t>
+  </si>
+  <si>
+    <t>Sr. Software Engineer (R11473)</t>
+  </si>
+  <si>
+    <t>Oportun</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3985464542</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer - Browser Research</t>
+  </si>
+  <si>
+    <t>c/side</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3984110763</t>
+  </si>
+  <si>
+    <t>Software Engineer - Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Orkes</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3971220920</t>
+  </si>
+  <si>
+    <t>Mindlance</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3982358799</t>
+  </si>
+  <si>
+    <t>Senior Node Developer</t>
+  </si>
+  <si>
+    <t>Lumenalta (formerly Clevertech)</t>
   </si>
 </sst>
 </file>
@@ -8285,6 +8507,9 @@
       <c r="C273" s="2" t="s">
         <v>779</v>
       </c>
+      <c r="R273" s="5">
+        <v>45500.0</v>
+      </c>
       <c r="T273" s="6" t="s">
         <v>780</v>
       </c>
@@ -8615,6 +8840,9 @@
       <c r="C294" s="2" t="s">
         <v>837</v>
       </c>
+      <c r="R294" s="5">
+        <v>45496.0</v>
+      </c>
       <c r="T294" s="6" t="s">
         <v>838</v>
       </c>
@@ -8758,6 +8986,9 @@
       <c r="C304" s="2" t="s">
         <v>864</v>
       </c>
+      <c r="R304" s="5">
+        <v>45499.0</v>
+      </c>
       <c r="T304" s="6" t="s">
         <v>865</v>
       </c>
@@ -9219,6 +9450,9 @@
       <c r="C335" s="2" t="s">
         <v>948</v>
       </c>
+      <c r="R335" s="5">
+        <v>45497.0</v>
+      </c>
       <c r="T335" s="6" t="s">
         <v>949</v>
       </c>
@@ -9348,6 +9582,9 @@
       <c r="C344" s="2" t="s">
         <v>975</v>
       </c>
+      <c r="E344" s="5">
+        <v>45498.0</v>
+      </c>
       <c r="T344" s="6" t="s">
         <v>976</v>
       </c>
@@ -9435,6 +9672,9 @@
       <c r="C350" s="2" t="s">
         <v>991</v>
       </c>
+      <c r="R350" s="5">
+        <v>45499.0</v>
+      </c>
       <c r="T350" s="4" t="s">
         <v>992</v>
       </c>
@@ -9505,6 +9745,9 @@
       <c r="C355" s="2" t="s">
         <v>1006</v>
       </c>
+      <c r="R355" s="5">
+        <v>45498.0</v>
+      </c>
       <c r="T355" s="6" t="s">
         <v>1007</v>
       </c>
@@ -9603,6 +9846,9 @@
       <c r="C362" s="2" t="s">
         <v>1025</v>
       </c>
+      <c r="R362" s="5">
+        <v>45499.0</v>
+      </c>
       <c r="T362" s="6" t="s">
         <v>1026</v>
       </c>
@@ -9642,6 +9888,9 @@
       <c r="C365" s="2" t="s">
         <v>1033</v>
       </c>
+      <c r="R365" s="5">
+        <v>45499.0</v>
+      </c>
       <c r="T365" s="6" t="s">
         <v>1034</v>
       </c>
@@ -9661,94 +9910,427 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="9"/>
+      <c r="A367" s="1">
+        <v>45496.0</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="S367" s="2" t="s">
+        <v>1039</v>
+      </c>
     </row>
     <row r="368">
-      <c r="A368" s="9"/>
+      <c r="A368" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="T368" s="6" t="s">
+        <v>1042</v>
+      </c>
     </row>
     <row r="369">
-      <c r="A369" s="9"/>
+      <c r="A369" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="T369" s="6" t="s">
+        <v>1015</v>
+      </c>
     </row>
     <row r="370">
-      <c r="A370" s="9"/>
+      <c r="A370" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="T370" s="6" t="s">
+        <v>1044</v>
+      </c>
     </row>
     <row r="371">
-      <c r="A371" s="9"/>
+      <c r="A371" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>910</v>
+      </c>
+      <c r="T371" s="6" t="s">
+        <v>1045</v>
+      </c>
     </row>
     <row r="372">
-      <c r="A372" s="9"/>
+      <c r="A372" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="T372" s="6" t="s">
+        <v>1047</v>
+      </c>
     </row>
     <row r="373">
-      <c r="A373" s="9"/>
+      <c r="A373" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="T373" s="6" t="s">
+        <v>1050</v>
+      </c>
     </row>
     <row r="374">
-      <c r="A374" s="9"/>
+      <c r="A374" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="T374" s="6" t="s">
+        <v>1053</v>
+      </c>
     </row>
     <row r="375">
-      <c r="A375" s="9"/>
+      <c r="A375" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>1055</v>
+      </c>
+      <c r="T375" s="6" t="s">
+        <v>1056</v>
+      </c>
     </row>
     <row r="376">
-      <c r="A376" s="9"/>
+      <c r="A376" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="T376" s="6" t="s">
+        <v>1059</v>
+      </c>
     </row>
     <row r="377">
-      <c r="A377" s="9"/>
+      <c r="A377" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="T377" s="6" t="s">
+        <v>1061</v>
+      </c>
     </row>
     <row r="378">
-      <c r="A378" s="9"/>
+      <c r="A378" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="T378" s="6" t="s">
+        <v>1063</v>
+      </c>
     </row>
     <row r="379">
-      <c r="A379" s="9"/>
+      <c r="A379" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="T379" s="6" t="s">
+        <v>1066</v>
+      </c>
     </row>
     <row r="380">
-      <c r="A380" s="9"/>
+      <c r="A380" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="T380" s="6" t="s">
+        <v>1069</v>
+      </c>
     </row>
     <row r="381">
-      <c r="A381" s="9"/>
+      <c r="A381" s="1">
+        <v>45497.0</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>974</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="T381" s="6" t="s">
+        <v>1071</v>
+      </c>
     </row>
     <row r="382">
-      <c r="A382" s="9"/>
+      <c r="A382" s="1">
+        <v>45500.0</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="T382" s="6" t="s">
+        <v>1073</v>
+      </c>
     </row>
     <row r="383">
-      <c r="A383" s="9"/>
+      <c r="A383" s="1">
+        <v>45500.0</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>1075</v>
+      </c>
+      <c r="T383" s="6" t="s">
+        <v>1076</v>
+      </c>
     </row>
     <row r="384">
-      <c r="A384" s="9"/>
+      <c r="A384" s="1">
+        <v>45500.0</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>1078</v>
+      </c>
+      <c r="E384" s="5">
+        <v>45505.0</v>
+      </c>
+      <c r="T384" s="6" t="s">
+        <v>1079</v>
+      </c>
     </row>
     <row r="385">
-      <c r="A385" s="9"/>
+      <c r="A385" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="T385" s="6" t="s">
+        <v>1081</v>
+      </c>
     </row>
     <row r="386">
-      <c r="A386" s="9"/>
+      <c r="A386" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="T386" s="6" t="s">
+        <v>1084</v>
+      </c>
     </row>
     <row r="387">
-      <c r="A387" s="9"/>
+      <c r="A387" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="T387" s="6" t="s">
+        <v>1087</v>
+      </c>
     </row>
     <row r="388">
-      <c r="A388" s="9"/>
+      <c r="A388" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="T388" s="6" t="s">
+        <v>1090</v>
+      </c>
     </row>
     <row r="389">
-      <c r="A389" s="9"/>
+      <c r="A389" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="T389" s="6" t="s">
+        <v>1093</v>
+      </c>
     </row>
     <row r="390">
-      <c r="A390" s="9"/>
+      <c r="A390" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C390" s="6" t="s">
+        <v>1094</v>
+      </c>
+      <c r="T390" s="6" t="s">
+        <v>1095</v>
+      </c>
     </row>
     <row r="391">
-      <c r="A391" s="9"/>
+      <c r="A391" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>1097</v>
+      </c>
+      <c r="T391" s="6" t="s">
+        <v>1098</v>
+      </c>
     </row>
     <row r="392">
-      <c r="A392" s="9"/>
+      <c r="A392" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="T392" s="6" t="s">
+        <v>1101</v>
+      </c>
     </row>
     <row r="393">
-      <c r="A393" s="9"/>
+      <c r="A393" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="T393" s="6" t="s">
+        <v>1104</v>
+      </c>
     </row>
     <row r="394">
-      <c r="A394" s="9"/>
+      <c r="A394" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="T394" s="6" t="s">
+        <v>1107</v>
+      </c>
     </row>
     <row r="395">
-      <c r="A395" s="9"/>
+      <c r="A395" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="T395" s="6" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="396">
-      <c r="A396" s="9"/>
+      <c r="A396" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>1111</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="9"/>
@@ -12034,7 +12616,36 @@
     <hyperlink r:id="rId345" ref="T364"/>
     <hyperlink r:id="rId346" ref="T365"/>
     <hyperlink r:id="rId347" ref="T366"/>
+    <hyperlink r:id="rId348" location="jobDetails=1588357_5415" ref="T368"/>
+    <hyperlink r:id="rId349" ref="T369"/>
+    <hyperlink r:id="rId350" ref="T370"/>
+    <hyperlink r:id="rId351" ref="T371"/>
+    <hyperlink r:id="rId352" ref="T372"/>
+    <hyperlink r:id="rId353" ref="T373"/>
+    <hyperlink r:id="rId354" ref="T374"/>
+    <hyperlink r:id="rId355" ref="T375"/>
+    <hyperlink r:id="rId356" ref="T376"/>
+    <hyperlink r:id="rId357" ref="T377"/>
+    <hyperlink r:id="rId358" ref="T378"/>
+    <hyperlink r:id="rId359" ref="T379"/>
+    <hyperlink r:id="rId360" ref="T380"/>
+    <hyperlink r:id="rId361" ref="T381"/>
+    <hyperlink r:id="rId362" ref="T382"/>
+    <hyperlink r:id="rId363" ref="T383"/>
+    <hyperlink r:id="rId364" ref="T384"/>
+    <hyperlink r:id="rId365" ref="T385"/>
+    <hyperlink r:id="rId366" ref="T386"/>
+    <hyperlink r:id="rId367" ref="T387"/>
+    <hyperlink r:id="rId368" ref="T388"/>
+    <hyperlink r:id="rId369" ref="T389"/>
+    <hyperlink r:id="rId370" ref="C390"/>
+    <hyperlink r:id="rId371" ref="T390"/>
+    <hyperlink r:id="rId372" ref="T391"/>
+    <hyperlink r:id="rId373" ref="T392"/>
+    <hyperlink r:id="rId374" ref="T393"/>
+    <hyperlink r:id="rId375" ref="T394"/>
+    <hyperlink r:id="rId376" ref="T395"/>
   </hyperlinks>
-  <drawing r:id="rId348"/>
+  <drawing r:id="rId377"/>
 </worksheet>
 </file>
--- a/Jesse - Job Applications 12_2023 - current.xlsx
+++ b/Jesse - Job Applications 12_2023 - current.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1213">
   <si>
     <t>Date</t>
   </si>
@@ -3348,6 +3348,309 @@
   </si>
   <si>
     <t>Lumenalta (formerly Clevertech)</t>
+  </si>
+  <si>
+    <t>https://lumenalta.com/jobs/senior-node-developer</t>
+  </si>
+  <si>
+    <t>Remote Lead/Sr. Software Engineer</t>
+  </si>
+  <si>
+    <t>AltSource, Inc</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3987117864</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer (NYC, SF or US Remote)</t>
+  </si>
+  <si>
+    <t>Bitwise</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3987122245</t>
+  </si>
+  <si>
+    <t>Juniper Square</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3987205160</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=c643787c491d7044</t>
+  </si>
+  <si>
+    <t>Blue Rose Consulting Group, Inc.</t>
+  </si>
+  <si>
+    <t>Web Developer</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=87d027166da25dfd</t>
+  </si>
+  <si>
+    <t>Software Engineer - Engineering Platforms</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=9758d2309c562486</t>
+  </si>
+  <si>
+    <t>ISI Enterprises</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=33775fd12f2aa7de</t>
+  </si>
+  <si>
+    <t>Software Engineer III, Payments</t>
+  </si>
+  <si>
+    <t>Crunchyroll, LLC</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=21de99266c85af5c</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer (Full Stack)</t>
+  </si>
+  <si>
+    <t>MagicSchool AI</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3991302685</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer,( financial services) || $150K - $185K Remote New York, United States</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3989146440</t>
+  </si>
+  <si>
+    <t>Lead Software Engineer (Integration)</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3990973622</t>
+  </si>
+  <si>
+    <t>Senior Full Stack Developer - Innovation</t>
+  </si>
+  <si>
+    <t>Rightworks</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3988044331</t>
+  </si>
+  <si>
+    <t>Senior Node Developer - Remote - USA</t>
+  </si>
+  <si>
+    <t>FullStack Labs</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3986725831</t>
+  </si>
+  <si>
+    <t>Software Engineer, Infrastructure</t>
+  </si>
+  <si>
+    <t>Unreal Staffing, Inc</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3990560717</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer- Frontend</t>
+  </si>
+  <si>
+    <t>nurdsoft</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3991353474</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3991331884</t>
+  </si>
+  <si>
+    <t>TypeScript Engineer</t>
+  </si>
+  <si>
+    <t>Last Call Media</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3986080439</t>
+  </si>
+  <si>
+    <t>REMOTE Sr. Software Engineer - Node.js, Express, Typescript</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3991964970</t>
+  </si>
+  <si>
+    <t>iSeries Consultant - Web Services/API Development/RPG</t>
+  </si>
+  <si>
+    <t>CTEC Corp.</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/?advn=1054387286299024&amp;vjk=2fa5c6d69bb93321</t>
+  </si>
+  <si>
+    <t>Opentext Platform Engineer</t>
+  </si>
+  <si>
+    <t>Unum</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software&amp;l=Chattanooga%2C+TN&amp;from=searchOnDesktopSerp&amp;vjk=9fb63e7ddf0ce935</t>
+  </si>
+  <si>
+    <t>UPS Programmer Specialist</t>
+  </si>
+  <si>
+    <t>Formel D USA</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software&amp;l=Chattanooga%2C+TN&amp;from=searchOnDesktopSerp&amp;vjk=4133b29015f0a824</t>
+  </si>
+  <si>
+    <t>Senior Front End (React &amp; React Native) Software Developer</t>
+  </si>
+  <si>
+    <t>Piere</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=rust&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=eeed344922928830</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer-GoLang</t>
+  </si>
+  <si>
+    <t>Quick Quack Car Wash</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=rust&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=86aac4a1887263db&amp;advn=7531144435121147</t>
+  </si>
+  <si>
+    <t>SALISH GEO</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=rust&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=853321751e1f89ee&amp;advn=3304908109958561</t>
+  </si>
+  <si>
+    <t>Senior Backend Software Engineer</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=5e2ba5c840336d53</t>
+  </si>
+  <si>
+    <t>Senior Fullstack Developer</t>
+  </si>
+  <si>
+    <t>Ethos.io</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=c27a1f6d67655d1d</t>
+  </si>
+  <si>
+    <t>Concentrix</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=79a877e5e3bd8406</t>
+  </si>
+  <si>
+    <t>Principal, Software Engineer 1</t>
+  </si>
+  <si>
+    <t>DIRECTV</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=bf15f0c2c81f3d29</t>
+  </si>
+  <si>
+    <t>Software Engineer IV</t>
+  </si>
+  <si>
+    <t>Genesis10</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3988030693</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, GraphQL</t>
+  </si>
+  <si>
+    <t>Varo Bank</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3980084390</t>
+  </si>
+  <si>
+    <t>REMOTE Sr. Software Engineer - React/Typescript</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3991971236</t>
+  </si>
+  <si>
+    <t>Rust Engineer - Crypto</t>
+  </si>
+  <si>
+    <t>Career Renew</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3989654555</t>
+  </si>
+  <si>
+    <t>Stripe Developer ((Revenue Finance automation)</t>
+  </si>
+  <si>
+    <t>Estuate, Inc.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3989168847</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/?advn=5756296404236002&amp;vjk=7f09fd40d84f3fb0</t>
+  </si>
+  <si>
+    <t>Rust Solana Smart Contract Developer</t>
+  </si>
+  <si>
+    <t>Decentral Holding Corporation</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=rust&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=1b09b60ca9ae566d</t>
+  </si>
+  <si>
+    <t>Localization Engineer - Remote</t>
+  </si>
+  <si>
+    <t>Crown Equipment Corporation</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=rust&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=2ba7c57c2e9af07d</t>
+  </si>
+  <si>
+    <t>GeoDelphi</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/viewjob?jk=650542fd17fab6a2&amp;from=apply-conf</t>
+  </si>
+  <si>
+    <t>Bitcentral, Inc.</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=php&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=212f3ba59f5cd040</t>
+  </si>
+  <si>
+    <t>BELVA</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=ocaml&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;vjk=0825c8f30b7bb63b&amp;advn=2850670066519697</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=ocaml&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;vjk=86aac4a1887263db&amp;advn=7531144435121147</t>
   </si>
 </sst>
 </file>
@@ -3359,7 +3662,7 @@
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3383,6 +3686,11 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Noto Sans&quot;"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3404,7 +3712,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3430,6 +3738,9 @@
       <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -8221,6 +8532,9 @@
       <c r="C253" s="2" t="s">
         <v>725</v>
       </c>
+      <c r="R253" s="5">
+        <v>45503.0</v>
+      </c>
       <c r="T253" s="6" t="s">
         <v>726</v>
       </c>
@@ -9265,6 +9579,9 @@
       <c r="G322" s="5">
         <v>45492.0</v>
       </c>
+      <c r="H322" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="T322" s="6" t="s">
         <v>915</v>
       </c>
@@ -9585,6 +9902,9 @@
       <c r="E344" s="5">
         <v>45498.0</v>
       </c>
+      <c r="F344" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="T344" s="6" t="s">
         <v>976</v>
       </c>
@@ -10146,6 +10466,9 @@
       <c r="C383" s="2" t="s">
         <v>1075</v>
       </c>
+      <c r="R383" s="5">
+        <v>45502.0</v>
+      </c>
       <c r="T383" s="6" t="s">
         <v>1076</v>
       </c>
@@ -10163,6 +10486,9 @@
       <c r="E384" s="5">
         <v>45505.0</v>
       </c>
+      <c r="F384" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="T384" s="6" t="s">
         <v>1079</v>
       </c>
@@ -10247,6 +10573,9 @@
       <c r="C390" s="6" t="s">
         <v>1094</v>
       </c>
+      <c r="R390" s="5">
+        <v>45504.0</v>
+      </c>
       <c r="T390" s="6" t="s">
         <v>1095</v>
       </c>
@@ -10261,6 +10590,9 @@
       <c r="C391" s="2" t="s">
         <v>1097</v>
       </c>
+      <c r="R391" s="5">
+        <v>45502.0</v>
+      </c>
       <c r="T391" s="6" t="s">
         <v>1098</v>
       </c>
@@ -10331,1941 +10663,2393 @@
       <c r="C396" s="2" t="s">
         <v>1111</v>
       </c>
+      <c r="R396" s="5">
+        <v>45505.0</v>
+      </c>
+      <c r="T396" s="6" t="s">
+        <v>1112</v>
+      </c>
     </row>
     <row r="397">
-      <c r="A397" s="9"/>
+      <c r="A397" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="T397" s="6" t="s">
+        <v>1115</v>
+      </c>
     </row>
     <row r="398">
-      <c r="A398" s="9"/>
+      <c r="A398" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T398" s="6" t="s">
+        <v>1118</v>
+      </c>
     </row>
     <row r="399">
-      <c r="A399" s="9"/>
+      <c r="A399" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="T399" s="6" t="s">
+        <v>1120</v>
+      </c>
     </row>
     <row r="400">
-      <c r="A400" s="9"/>
+      <c r="A400" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="T400" s="6" t="s">
+        <v>1121</v>
+      </c>
     </row>
     <row r="401">
-      <c r="A401" s="9"/>
+      <c r="A401" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="T401" s="6" t="s">
+        <v>1124</v>
+      </c>
     </row>
     <row r="402">
-      <c r="A402" s="9"/>
+      <c r="A402" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C402" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="T402" s="6" t="s">
+        <v>1127</v>
+      </c>
     </row>
     <row r="403">
-      <c r="A403" s="9"/>
+      <c r="A403" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="T403" s="6" t="s">
+        <v>1129</v>
+      </c>
     </row>
     <row r="404">
-      <c r="A404" s="9"/>
+      <c r="A404" s="1">
+        <v>45502.0</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="T404" s="6" t="s">
+        <v>1132</v>
+      </c>
     </row>
     <row r="405">
-      <c r="A405" s="9"/>
+      <c r="A405" s="1">
+        <v>45506.0</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="T405" s="6" t="s">
+        <v>1135</v>
+      </c>
     </row>
     <row r="406">
-      <c r="A406" s="9"/>
+      <c r="A406" s="1">
+        <v>45506.0</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>985</v>
+      </c>
+      <c r="T406" s="6" t="s">
+        <v>1137</v>
+      </c>
     </row>
     <row r="407">
-      <c r="A407" s="9"/>
+      <c r="A407" s="1">
+        <v>45506.0</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="T407" s="6" t="s">
+        <v>1139</v>
+      </c>
     </row>
     <row r="408">
-      <c r="A408" s="9"/>
+      <c r="A408" s="1">
+        <v>45506.0</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="T408" s="6" t="s">
+        <v>1142</v>
+      </c>
     </row>
     <row r="409">
-      <c r="A409" s="9"/>
+      <c r="A409" s="1">
+        <v>45506.0</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="R409" s="5">
+        <v>45506.0</v>
+      </c>
+      <c r="T409" s="6" t="s">
+        <v>1145</v>
+      </c>
     </row>
     <row r="410">
-      <c r="A410" s="9"/>
+      <c r="A410" s="1">
+        <v>45506.0</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="T410" s="6" t="s">
+        <v>1148</v>
+      </c>
     </row>
     <row r="411">
-      <c r="A411" s="9"/>
+      <c r="A411" s="1">
+        <v>45506.0</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="T411" s="6" t="s">
+        <v>1151</v>
+      </c>
     </row>
     <row r="412">
-      <c r="A412" s="9"/>
+      <c r="A412" s="1">
+        <v>45506.0</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>839</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="T412" s="6" t="s">
+        <v>1152</v>
+      </c>
     </row>
     <row r="413">
-      <c r="A413" s="9"/>
+      <c r="A413" s="1">
+        <v>45506.0</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G413" s="5">
+        <v>45506.0</v>
+      </c>
+      <c r="T413" s="4" t="s">
+        <v>1155</v>
+      </c>
     </row>
     <row r="414">
-      <c r="A414" s="9"/>
+      <c r="A414" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T414" s="6" t="s">
+        <v>1157</v>
+      </c>
     </row>
     <row r="415">
-      <c r="A415" s="9"/>
+      <c r="A415" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="T415" s="6" t="s">
+        <v>1160</v>
+      </c>
     </row>
     <row r="416">
-      <c r="A416" s="9"/>
+      <c r="A416" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="T416" s="6" t="s">
+        <v>1163</v>
+      </c>
     </row>
     <row r="417">
-      <c r="A417" s="9"/>
+      <c r="A417" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="T417" s="6" t="s">
+        <v>1166</v>
+      </c>
     </row>
     <row r="418">
-      <c r="A418" s="9"/>
+      <c r="A418" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="T418" s="6" t="s">
+        <v>1169</v>
+      </c>
     </row>
     <row r="419">
-      <c r="A419" s="9"/>
+      <c r="A419" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="T419" s="6" t="s">
+        <v>1172</v>
+      </c>
     </row>
     <row r="420">
-      <c r="A420" s="9"/>
+      <c r="A420" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="T420" s="6" t="s">
+        <v>1174</v>
+      </c>
     </row>
     <row r="421">
-      <c r="A421" s="9"/>
+      <c r="A421" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T421" s="6" t="s">
+        <v>1176</v>
+      </c>
     </row>
     <row r="422">
-      <c r="A422" s="9"/>
+      <c r="A422" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C422" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="T422" s="6" t="s">
+        <v>1179</v>
+      </c>
     </row>
     <row r="423">
-      <c r="A423" s="9"/>
+      <c r="A423" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="T423" s="6" t="s">
+        <v>1181</v>
+      </c>
     </row>
     <row r="424">
-      <c r="A424" s="9"/>
+      <c r="A424" s="1">
+        <v>45508.0</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="T424" s="6" t="s">
+        <v>1184</v>
+      </c>
     </row>
     <row r="425">
-      <c r="A425" s="9"/>
+      <c r="A425" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="T425" s="6" t="s">
+        <v>1187</v>
+      </c>
     </row>
     <row r="426">
-      <c r="A426" s="9"/>
+      <c r="A426" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="T426" s="6" t="s">
+        <v>1190</v>
+      </c>
     </row>
     <row r="427">
-      <c r="A427" s="9"/>
+      <c r="A427" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T427" s="6" t="s">
+        <v>1192</v>
+      </c>
     </row>
     <row r="428">
-      <c r="A428" s="9"/>
+      <c r="A428" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="T428" s="6" t="s">
+        <v>1195</v>
+      </c>
     </row>
     <row r="429">
-      <c r="A429" s="9"/>
+      <c r="A429" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="T429" s="6" t="s">
+        <v>1198</v>
+      </c>
     </row>
     <row r="430">
-      <c r="A430" s="9"/>
+      <c r="A430" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="T430" s="6" t="s">
+        <v>1199</v>
+      </c>
     </row>
     <row r="431">
-      <c r="A431" s="9"/>
+      <c r="A431" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="T431" s="6" t="s">
+        <v>1202</v>
+      </c>
     </row>
     <row r="432">
-      <c r="A432" s="9"/>
+      <c r="A432" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="T432" s="6" t="s">
+        <v>1205</v>
+      </c>
     </row>
     <row r="433">
-      <c r="A433" s="9"/>
+      <c r="A433" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="T433" s="6" t="s">
+        <v>1207</v>
+      </c>
     </row>
     <row r="434">
-      <c r="A434" s="9"/>
+      <c r="A434" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="T434" s="6" t="s">
+        <v>1209</v>
+      </c>
     </row>
     <row r="435">
-      <c r="A435" s="9"/>
+      <c r="A435" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="T435" s="6" t="s">
+        <v>1211</v>
+      </c>
     </row>
     <row r="436">
-      <c r="A436" s="9"/>
+      <c r="A436" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="T436" s="6" t="s">
+        <v>1212</v>
+      </c>
     </row>
     <row r="437">
-      <c r="A437" s="9"/>
+      <c r="A437" s="10"/>
     </row>
     <row r="438">
-      <c r="A438" s="9"/>
+      <c r="A438" s="10"/>
     </row>
     <row r="439">
-      <c r="A439" s="9"/>
+      <c r="A439" s="10"/>
     </row>
     <row r="440">
-      <c r="A440" s="9"/>
+      <c r="A440" s="10"/>
     </row>
     <row r="441">
-      <c r="A441" s="9"/>
+      <c r="A441" s="10"/>
     </row>
     <row r="442">
-      <c r="A442" s="9"/>
+      <c r="A442" s="10"/>
     </row>
     <row r="443">
-      <c r="A443" s="9"/>
+      <c r="A443" s="10"/>
     </row>
     <row r="444">
-      <c r="A444" s="9"/>
+      <c r="A444" s="10"/>
     </row>
     <row r="445">
-      <c r="A445" s="9"/>
+      <c r="A445" s="10"/>
     </row>
     <row r="446">
-      <c r="A446" s="9"/>
+      <c r="A446" s="10"/>
     </row>
     <row r="447">
-      <c r="A447" s="9"/>
+      <c r="A447" s="10"/>
     </row>
     <row r="448">
-      <c r="A448" s="9"/>
+      <c r="A448" s="10"/>
     </row>
     <row r="449">
-      <c r="A449" s="9"/>
+      <c r="A449" s="10"/>
     </row>
     <row r="450">
-      <c r="A450" s="9"/>
+      <c r="A450" s="10"/>
     </row>
     <row r="451">
-      <c r="A451" s="9"/>
+      <c r="A451" s="10"/>
     </row>
     <row r="452">
-      <c r="A452" s="9"/>
+      <c r="A452" s="10"/>
     </row>
     <row r="453">
-      <c r="A453" s="9"/>
+      <c r="A453" s="10"/>
     </row>
     <row r="454">
-      <c r="A454" s="9"/>
+      <c r="A454" s="10"/>
     </row>
     <row r="455">
-      <c r="A455" s="9"/>
+      <c r="A455" s="10"/>
     </row>
     <row r="456">
-      <c r="A456" s="9"/>
+      <c r="A456" s="10"/>
     </row>
     <row r="457">
-      <c r="A457" s="9"/>
+      <c r="A457" s="10"/>
     </row>
     <row r="458">
-      <c r="A458" s="9"/>
+      <c r="A458" s="10"/>
     </row>
     <row r="459">
-      <c r="A459" s="9"/>
+      <c r="A459" s="10"/>
     </row>
     <row r="460">
-      <c r="A460" s="9"/>
+      <c r="A460" s="10"/>
     </row>
     <row r="461">
-      <c r="A461" s="9"/>
+      <c r="A461" s="10"/>
     </row>
     <row r="462">
-      <c r="A462" s="9"/>
+      <c r="A462" s="10"/>
     </row>
     <row r="463">
-      <c r="A463" s="9"/>
+      <c r="A463" s="10"/>
     </row>
     <row r="464">
-      <c r="A464" s="9"/>
+      <c r="A464" s="10"/>
     </row>
     <row r="465">
-      <c r="A465" s="9"/>
+      <c r="A465" s="10"/>
     </row>
     <row r="466">
-      <c r="A466" s="9"/>
+      <c r="A466" s="10"/>
     </row>
     <row r="467">
-      <c r="A467" s="9"/>
+      <c r="A467" s="10"/>
     </row>
     <row r="468">
-      <c r="A468" s="9"/>
+      <c r="A468" s="10"/>
     </row>
     <row r="469">
-      <c r="A469" s="9"/>
+      <c r="A469" s="10"/>
     </row>
     <row r="470">
-      <c r="A470" s="9"/>
+      <c r="A470" s="10"/>
     </row>
     <row r="471">
-      <c r="A471" s="9"/>
+      <c r="A471" s="10"/>
     </row>
     <row r="472">
-      <c r="A472" s="9"/>
+      <c r="A472" s="10"/>
     </row>
     <row r="473">
-      <c r="A473" s="9"/>
+      <c r="A473" s="10"/>
     </row>
     <row r="474">
-      <c r="A474" s="9"/>
+      <c r="A474" s="10"/>
     </row>
     <row r="475">
-      <c r="A475" s="9"/>
+      <c r="A475" s="10"/>
     </row>
     <row r="476">
-      <c r="A476" s="9"/>
+      <c r="A476" s="10"/>
     </row>
     <row r="477">
-      <c r="A477" s="9"/>
+      <c r="A477" s="10"/>
     </row>
     <row r="478">
-      <c r="A478" s="9"/>
+      <c r="A478" s="10"/>
     </row>
     <row r="479">
-      <c r="A479" s="9"/>
+      <c r="A479" s="10"/>
     </row>
     <row r="480">
-      <c r="A480" s="9"/>
+      <c r="A480" s="10"/>
     </row>
     <row r="481">
-      <c r="A481" s="9"/>
+      <c r="A481" s="10"/>
     </row>
     <row r="482">
-      <c r="A482" s="9"/>
+      <c r="A482" s="10"/>
     </row>
     <row r="483">
-      <c r="A483" s="9"/>
+      <c r="A483" s="10"/>
     </row>
     <row r="484">
-      <c r="A484" s="9"/>
+      <c r="A484" s="10"/>
     </row>
     <row r="485">
-      <c r="A485" s="9"/>
+      <c r="A485" s="10"/>
     </row>
     <row r="486">
-      <c r="A486" s="9"/>
+      <c r="A486" s="10"/>
     </row>
     <row r="487">
-      <c r="A487" s="9"/>
+      <c r="A487" s="10"/>
     </row>
     <row r="488">
-      <c r="A488" s="9"/>
+      <c r="A488" s="10"/>
     </row>
     <row r="489">
-      <c r="A489" s="9"/>
+      <c r="A489" s="10"/>
     </row>
     <row r="490">
-      <c r="A490" s="9"/>
+      <c r="A490" s="10"/>
     </row>
     <row r="491">
-      <c r="A491" s="9"/>
+      <c r="A491" s="10"/>
     </row>
     <row r="492">
-      <c r="A492" s="9"/>
+      <c r="A492" s="10"/>
     </row>
     <row r="493">
-      <c r="A493" s="9"/>
+      <c r="A493" s="10"/>
     </row>
     <row r="494">
-      <c r="A494" s="9"/>
+      <c r="A494" s="10"/>
     </row>
     <row r="495">
-      <c r="A495" s="9"/>
+      <c r="A495" s="10"/>
     </row>
     <row r="496">
-      <c r="A496" s="9"/>
+      <c r="A496" s="10"/>
     </row>
     <row r="497">
-      <c r="A497" s="9"/>
+      <c r="A497" s="10"/>
     </row>
     <row r="498">
-      <c r="A498" s="9"/>
+      <c r="A498" s="10"/>
     </row>
     <row r="499">
-      <c r="A499" s="9"/>
+      <c r="A499" s="10"/>
     </row>
     <row r="500">
-      <c r="A500" s="9"/>
+      <c r="A500" s="10"/>
     </row>
     <row r="501">
-      <c r="A501" s="9"/>
+      <c r="A501" s="10"/>
     </row>
     <row r="502">
-      <c r="A502" s="9"/>
+      <c r="A502" s="10"/>
     </row>
     <row r="503">
-      <c r="A503" s="9"/>
+      <c r="A503" s="10"/>
     </row>
     <row r="504">
-      <c r="A504" s="9"/>
+      <c r="A504" s="10"/>
     </row>
     <row r="505">
-      <c r="A505" s="9"/>
+      <c r="A505" s="10"/>
     </row>
     <row r="506">
-      <c r="A506" s="9"/>
+      <c r="A506" s="10"/>
     </row>
     <row r="507">
-      <c r="A507" s="9"/>
+      <c r="A507" s="10"/>
     </row>
     <row r="508">
-      <c r="A508" s="9"/>
+      <c r="A508" s="10"/>
     </row>
     <row r="509">
-      <c r="A509" s="9"/>
+      <c r="A509" s="10"/>
     </row>
     <row r="510">
-      <c r="A510" s="9"/>
+      <c r="A510" s="10"/>
     </row>
     <row r="511">
-      <c r="A511" s="9"/>
+      <c r="A511" s="10"/>
     </row>
     <row r="512">
-      <c r="A512" s="9"/>
+      <c r="A512" s="10"/>
     </row>
     <row r="513">
-      <c r="A513" s="9"/>
+      <c r="A513" s="10"/>
     </row>
     <row r="514">
-      <c r="A514" s="9"/>
+      <c r="A514" s="10"/>
     </row>
     <row r="515">
-      <c r="A515" s="9"/>
+      <c r="A515" s="10"/>
     </row>
     <row r="516">
-      <c r="A516" s="9"/>
+      <c r="A516" s="10"/>
     </row>
     <row r="517">
-      <c r="A517" s="9"/>
+      <c r="A517" s="10"/>
     </row>
     <row r="518">
-      <c r="A518" s="9"/>
+      <c r="A518" s="10"/>
     </row>
     <row r="519">
-      <c r="A519" s="9"/>
+      <c r="A519" s="10"/>
     </row>
     <row r="520">
-      <c r="A520" s="9"/>
+      <c r="A520" s="10"/>
     </row>
     <row r="521">
-      <c r="A521" s="9"/>
+      <c r="A521" s="10"/>
     </row>
     <row r="522">
-      <c r="A522" s="9"/>
+      <c r="A522" s="10"/>
     </row>
     <row r="523">
-      <c r="A523" s="9"/>
+      <c r="A523" s="10"/>
     </row>
     <row r="524">
-      <c r="A524" s="9"/>
+      <c r="A524" s="10"/>
     </row>
     <row r="525">
-      <c r="A525" s="9"/>
+      <c r="A525" s="10"/>
     </row>
     <row r="526">
-      <c r="A526" s="9"/>
+      <c r="A526" s="10"/>
     </row>
     <row r="527">
-      <c r="A527" s="9"/>
+      <c r="A527" s="10"/>
     </row>
     <row r="528">
-      <c r="A528" s="9"/>
+      <c r="A528" s="10"/>
     </row>
     <row r="529">
-      <c r="A529" s="9"/>
+      <c r="A529" s="10"/>
     </row>
     <row r="530">
-      <c r="A530" s="9"/>
+      <c r="A530" s="10"/>
     </row>
     <row r="531">
-      <c r="A531" s="9"/>
+      <c r="A531" s="10"/>
     </row>
     <row r="532">
-      <c r="A532" s="9"/>
+      <c r="A532" s="10"/>
     </row>
     <row r="533">
-      <c r="A533" s="9"/>
+      <c r="A533" s="10"/>
     </row>
     <row r="534">
-      <c r="A534" s="9"/>
+      <c r="A534" s="10"/>
     </row>
     <row r="535">
-      <c r="A535" s="9"/>
+      <c r="A535" s="10"/>
     </row>
     <row r="536">
-      <c r="A536" s="9"/>
+      <c r="A536" s="10"/>
     </row>
     <row r="537">
-      <c r="A537" s="9"/>
+      <c r="A537" s="10"/>
     </row>
     <row r="538">
-      <c r="A538" s="9"/>
+      <c r="A538" s="10"/>
     </row>
     <row r="539">
-      <c r="A539" s="9"/>
+      <c r="A539" s="10"/>
     </row>
     <row r="540">
-      <c r="A540" s="9"/>
+      <c r="A540" s="10"/>
     </row>
     <row r="541">
-      <c r="A541" s="9"/>
+      <c r="A541" s="10"/>
     </row>
     <row r="542">
-      <c r="A542" s="9"/>
+      <c r="A542" s="10"/>
     </row>
     <row r="543">
-      <c r="A543" s="9"/>
+      <c r="A543" s="10"/>
     </row>
     <row r="544">
-      <c r="A544" s="9"/>
+      <c r="A544" s="10"/>
     </row>
     <row r="545">
-      <c r="A545" s="9"/>
+      <c r="A545" s="10"/>
     </row>
     <row r="546">
-      <c r="A546" s="9"/>
+      <c r="A546" s="10"/>
     </row>
     <row r="547">
-      <c r="A547" s="9"/>
+      <c r="A547" s="10"/>
     </row>
     <row r="548">
-      <c r="A548" s="9"/>
+      <c r="A548" s="10"/>
     </row>
     <row r="549">
-      <c r="A549" s="9"/>
+      <c r="A549" s="10"/>
     </row>
     <row r="550">
-      <c r="A550" s="9"/>
+      <c r="A550" s="10"/>
     </row>
     <row r="551">
-      <c r="A551" s="9"/>
+      <c r="A551" s="10"/>
     </row>
     <row r="552">
-      <c r="A552" s="9"/>
+      <c r="A552" s="10"/>
     </row>
     <row r="553">
-      <c r="A553" s="9"/>
+      <c r="A553" s="10"/>
     </row>
     <row r="554">
-      <c r="A554" s="9"/>
+      <c r="A554" s="10"/>
     </row>
     <row r="555">
-      <c r="A555" s="9"/>
+      <c r="A555" s="10"/>
     </row>
     <row r="556">
-      <c r="A556" s="9"/>
+      <c r="A556" s="10"/>
     </row>
     <row r="557">
-      <c r="A557" s="9"/>
+      <c r="A557" s="10"/>
     </row>
     <row r="558">
-      <c r="A558" s="9"/>
+      <c r="A558" s="10"/>
     </row>
     <row r="559">
-      <c r="A559" s="9"/>
+      <c r="A559" s="10"/>
     </row>
     <row r="560">
-      <c r="A560" s="9"/>
+      <c r="A560" s="10"/>
     </row>
     <row r="561">
-      <c r="A561" s="9"/>
+      <c r="A561" s="10"/>
     </row>
     <row r="562">
-      <c r="A562" s="9"/>
+      <c r="A562" s="10"/>
     </row>
     <row r="563">
-      <c r="A563" s="9"/>
+      <c r="A563" s="10"/>
     </row>
     <row r="564">
-      <c r="A564" s="9"/>
+      <c r="A564" s="10"/>
     </row>
     <row r="565">
-      <c r="A565" s="9"/>
+      <c r="A565" s="10"/>
     </row>
     <row r="566">
-      <c r="A566" s="9"/>
+      <c r="A566" s="10"/>
     </row>
     <row r="567">
-      <c r="A567" s="9"/>
+      <c r="A567" s="10"/>
     </row>
     <row r="568">
-      <c r="A568" s="9"/>
+      <c r="A568" s="10"/>
     </row>
     <row r="569">
-      <c r="A569" s="9"/>
+      <c r="A569" s="10"/>
     </row>
     <row r="570">
-      <c r="A570" s="9"/>
+      <c r="A570" s="10"/>
     </row>
     <row r="571">
-      <c r="A571" s="9"/>
+      <c r="A571" s="10"/>
     </row>
     <row r="572">
-      <c r="A572" s="9"/>
+      <c r="A572" s="10"/>
     </row>
     <row r="573">
-      <c r="A573" s="9"/>
+      <c r="A573" s="10"/>
     </row>
     <row r="574">
-      <c r="A574" s="9"/>
+      <c r="A574" s="10"/>
     </row>
     <row r="575">
-      <c r="A575" s="9"/>
+      <c r="A575" s="10"/>
     </row>
     <row r="576">
-      <c r="A576" s="9"/>
+      <c r="A576" s="10"/>
     </row>
     <row r="577">
-      <c r="A577" s="9"/>
+      <c r="A577" s="10"/>
     </row>
     <row r="578">
-      <c r="A578" s="9"/>
+      <c r="A578" s="10"/>
     </row>
     <row r="579">
-      <c r="A579" s="9"/>
+      <c r="A579" s="10"/>
     </row>
     <row r="580">
-      <c r="A580" s="9"/>
+      <c r="A580" s="10"/>
     </row>
     <row r="581">
-      <c r="A581" s="9"/>
+      <c r="A581" s="10"/>
     </row>
     <row r="582">
-      <c r="A582" s="9"/>
+      <c r="A582" s="10"/>
     </row>
     <row r="583">
-      <c r="A583" s="9"/>
+      <c r="A583" s="10"/>
     </row>
     <row r="584">
-      <c r="A584" s="9"/>
+      <c r="A584" s="10"/>
     </row>
     <row r="585">
-      <c r="A585" s="9"/>
+      <c r="A585" s="10"/>
     </row>
     <row r="586">
-      <c r="A586" s="9"/>
+      <c r="A586" s="10"/>
     </row>
     <row r="587">
-      <c r="A587" s="9"/>
+      <c r="A587" s="10"/>
     </row>
     <row r="588">
-      <c r="A588" s="9"/>
+      <c r="A588" s="10"/>
     </row>
     <row r="589">
-      <c r="A589" s="9"/>
+      <c r="A589" s="10"/>
     </row>
     <row r="590">
-      <c r="A590" s="9"/>
+      <c r="A590" s="10"/>
     </row>
     <row r="591">
-      <c r="A591" s="9"/>
+      <c r="A591" s="10"/>
     </row>
     <row r="592">
-      <c r="A592" s="9"/>
+      <c r="A592" s="10"/>
     </row>
     <row r="593">
-      <c r="A593" s="9"/>
+      <c r="A593" s="10"/>
     </row>
     <row r="594">
-      <c r="A594" s="9"/>
+      <c r="A594" s="10"/>
     </row>
     <row r="595">
-      <c r="A595" s="9"/>
+      <c r="A595" s="10"/>
     </row>
     <row r="596">
-      <c r="A596" s="9"/>
+      <c r="A596" s="10"/>
     </row>
     <row r="597">
-      <c r="A597" s="9"/>
+      <c r="A597" s="10"/>
     </row>
     <row r="598">
-      <c r="A598" s="9"/>
+      <c r="A598" s="10"/>
     </row>
     <row r="599">
-      <c r="A599" s="9"/>
+      <c r="A599" s="10"/>
     </row>
     <row r="600">
-      <c r="A600" s="9"/>
+      <c r="A600" s="10"/>
     </row>
     <row r="601">
-      <c r="A601" s="9"/>
+      <c r="A601" s="10"/>
     </row>
     <row r="602">
-      <c r="A602" s="9"/>
+      <c r="A602" s="10"/>
     </row>
     <row r="603">
-      <c r="A603" s="9"/>
+      <c r="A603" s="10"/>
     </row>
     <row r="604">
-      <c r="A604" s="9"/>
+      <c r="A604" s="10"/>
     </row>
     <row r="605">
-      <c r="A605" s="9"/>
+      <c r="A605" s="10"/>
     </row>
     <row r="606">
-      <c r="A606" s="9"/>
+      <c r="A606" s="10"/>
     </row>
     <row r="607">
-      <c r="A607" s="9"/>
+      <c r="A607" s="10"/>
     </row>
     <row r="608">
-      <c r="A608" s="9"/>
+      <c r="A608" s="10"/>
     </row>
     <row r="609">
-      <c r="A609" s="9"/>
+      <c r="A609" s="10"/>
     </row>
     <row r="610">
-      <c r="A610" s="9"/>
+      <c r="A610" s="10"/>
     </row>
     <row r="611">
-      <c r="A611" s="9"/>
+      <c r="A611" s="10"/>
     </row>
     <row r="612">
-      <c r="A612" s="9"/>
+      <c r="A612" s="10"/>
     </row>
     <row r="613">
-      <c r="A613" s="9"/>
+      <c r="A613" s="10"/>
     </row>
     <row r="614">
-      <c r="A614" s="9"/>
+      <c r="A614" s="10"/>
     </row>
     <row r="615">
-      <c r="A615" s="9"/>
+      <c r="A615" s="10"/>
     </row>
     <row r="616">
-      <c r="A616" s="9"/>
+      <c r="A616" s="10"/>
     </row>
     <row r="617">
-      <c r="A617" s="9"/>
+      <c r="A617" s="10"/>
     </row>
     <row r="618">
-      <c r="A618" s="9"/>
+      <c r="A618" s="10"/>
     </row>
     <row r="619">
-      <c r="A619" s="9"/>
+      <c r="A619" s="10"/>
     </row>
     <row r="620">
-      <c r="A620" s="9"/>
+      <c r="A620" s="10"/>
     </row>
     <row r="621">
-      <c r="A621" s="9"/>
+      <c r="A621" s="10"/>
     </row>
     <row r="622">
-      <c r="A622" s="9"/>
+      <c r="A622" s="10"/>
     </row>
     <row r="623">
-      <c r="A623" s="9"/>
+      <c r="A623" s="10"/>
     </row>
     <row r="624">
-      <c r="A624" s="9"/>
+      <c r="A624" s="10"/>
     </row>
     <row r="625">
-      <c r="A625" s="9"/>
+      <c r="A625" s="10"/>
     </row>
     <row r="626">
-      <c r="A626" s="9"/>
+      <c r="A626" s="10"/>
     </row>
     <row r="627">
-      <c r="A627" s="9"/>
+      <c r="A627" s="10"/>
     </row>
     <row r="628">
-      <c r="A628" s="9"/>
+      <c r="A628" s="10"/>
     </row>
     <row r="629">
-      <c r="A629" s="9"/>
+      <c r="A629" s="10"/>
     </row>
     <row r="630">
-      <c r="A630" s="9"/>
+      <c r="A630" s="10"/>
     </row>
     <row r="631">
-      <c r="A631" s="9"/>
+      <c r="A631" s="10"/>
     </row>
     <row r="632">
-      <c r="A632" s="9"/>
+      <c r="A632" s="10"/>
     </row>
     <row r="633">
-      <c r="A633" s="9"/>
+      <c r="A633" s="10"/>
     </row>
     <row r="634">
-      <c r="A634" s="9"/>
+      <c r="A634" s="10"/>
     </row>
     <row r="635">
-      <c r="A635" s="9"/>
+      <c r="A635" s="10"/>
     </row>
     <row r="636">
-      <c r="A636" s="9"/>
+      <c r="A636" s="10"/>
     </row>
     <row r="637">
-      <c r="A637" s="9"/>
+      <c r="A637" s="10"/>
     </row>
     <row r="638">
-      <c r="A638" s="9"/>
+      <c r="A638" s="10"/>
     </row>
     <row r="639">
-      <c r="A639" s="9"/>
+      <c r="A639" s="10"/>
     </row>
     <row r="640">
-      <c r="A640" s="9"/>
+      <c r="A640" s="10"/>
     </row>
     <row r="641">
-      <c r="A641" s="9"/>
+      <c r="A641" s="10"/>
     </row>
     <row r="642">
-      <c r="A642" s="9"/>
+      <c r="A642" s="10"/>
     </row>
     <row r="643">
-      <c r="A643" s="9"/>
+      <c r="A643" s="10"/>
     </row>
     <row r="644">
-      <c r="A644" s="9"/>
+      <c r="A644" s="10"/>
     </row>
     <row r="645">
-      <c r="A645" s="9"/>
+      <c r="A645" s="10"/>
     </row>
     <row r="646">
-      <c r="A646" s="9"/>
+      <c r="A646" s="10"/>
     </row>
     <row r="647">
-      <c r="A647" s="9"/>
+      <c r="A647" s="10"/>
     </row>
     <row r="648">
-      <c r="A648" s="9"/>
+      <c r="A648" s="10"/>
     </row>
     <row r="649">
-      <c r="A649" s="9"/>
+      <c r="A649" s="10"/>
     </row>
     <row r="650">
-      <c r="A650" s="9"/>
+      <c r="A650" s="10"/>
     </row>
     <row r="651">
-      <c r="A651" s="9"/>
+      <c r="A651" s="10"/>
     </row>
     <row r="652">
-      <c r="A652" s="9"/>
+      <c r="A652" s="10"/>
     </row>
     <row r="653">
-      <c r="A653" s="9"/>
+      <c r="A653" s="10"/>
     </row>
     <row r="654">
-      <c r="A654" s="9"/>
+      <c r="A654" s="10"/>
     </row>
     <row r="655">
-      <c r="A655" s="9"/>
+      <c r="A655" s="10"/>
     </row>
     <row r="656">
-      <c r="A656" s="9"/>
+      <c r="A656" s="10"/>
     </row>
     <row r="657">
-      <c r="A657" s="9"/>
+      <c r="A657" s="10"/>
     </row>
     <row r="658">
-      <c r="A658" s="9"/>
+      <c r="A658" s="10"/>
     </row>
     <row r="659">
-      <c r="A659" s="9"/>
+      <c r="A659" s="10"/>
     </row>
     <row r="660">
-      <c r="A660" s="9"/>
+      <c r="A660" s="10"/>
     </row>
     <row r="661">
-      <c r="A661" s="9"/>
+      <c r="A661" s="10"/>
     </row>
     <row r="662">
-      <c r="A662" s="9"/>
+      <c r="A662" s="10"/>
     </row>
     <row r="663">
-      <c r="A663" s="9"/>
+      <c r="A663" s="10"/>
     </row>
     <row r="664">
-      <c r="A664" s="9"/>
+      <c r="A664" s="10"/>
     </row>
     <row r="665">
-      <c r="A665" s="9"/>
+      <c r="A665" s="10"/>
     </row>
     <row r="666">
-      <c r="A666" s="9"/>
+      <c r="A666" s="10"/>
     </row>
     <row r="667">
-      <c r="A667" s="9"/>
+      <c r="A667" s="10"/>
     </row>
     <row r="668">
-      <c r="A668" s="9"/>
+      <c r="A668" s="10"/>
     </row>
     <row r="669">
-      <c r="A669" s="9"/>
+      <c r="A669" s="10"/>
     </row>
     <row r="670">
-      <c r="A670" s="9"/>
+      <c r="A670" s="10"/>
     </row>
     <row r="671">
-      <c r="A671" s="9"/>
+      <c r="A671" s="10"/>
     </row>
     <row r="672">
-      <c r="A672" s="9"/>
+      <c r="A672" s="10"/>
     </row>
     <row r="673">
-      <c r="A673" s="9"/>
+      <c r="A673" s="10"/>
     </row>
     <row r="674">
-      <c r="A674" s="9"/>
+      <c r="A674" s="10"/>
     </row>
     <row r="675">
-      <c r="A675" s="9"/>
+      <c r="A675" s="10"/>
     </row>
     <row r="676">
-      <c r="A676" s="9"/>
+      <c r="A676" s="10"/>
     </row>
     <row r="677">
-      <c r="A677" s="9"/>
+      <c r="A677" s="10"/>
     </row>
     <row r="678">
-      <c r="A678" s="9"/>
+      <c r="A678" s="10"/>
     </row>
     <row r="679">
-      <c r="A679" s="9"/>
+      <c r="A679" s="10"/>
     </row>
     <row r="680">
-      <c r="A680" s="9"/>
+      <c r="A680" s="10"/>
     </row>
     <row r="681">
-      <c r="A681" s="9"/>
+      <c r="A681" s="10"/>
     </row>
     <row r="682">
-      <c r="A682" s="9"/>
+      <c r="A682" s="10"/>
     </row>
     <row r="683">
-      <c r="A683" s="9"/>
+      <c r="A683" s="10"/>
     </row>
     <row r="684">
-      <c r="A684" s="9"/>
+      <c r="A684" s="10"/>
     </row>
     <row r="685">
-      <c r="A685" s="9"/>
+      <c r="A685" s="10"/>
     </row>
     <row r="686">
-      <c r="A686" s="9"/>
+      <c r="A686" s="10"/>
     </row>
     <row r="687">
-      <c r="A687" s="9"/>
+      <c r="A687" s="10"/>
     </row>
     <row r="688">
-      <c r="A688" s="9"/>
+      <c r="A688" s="10"/>
     </row>
     <row r="689">
-      <c r="A689" s="9"/>
+      <c r="A689" s="10"/>
     </row>
     <row r="690">
-      <c r="A690" s="9"/>
+      <c r="A690" s="10"/>
     </row>
     <row r="691">
-      <c r="A691" s="9"/>
+      <c r="A691" s="10"/>
     </row>
     <row r="692">
-      <c r="A692" s="9"/>
+      <c r="A692" s="10"/>
     </row>
     <row r="693">
-      <c r="A693" s="9"/>
+      <c r="A693" s="10"/>
     </row>
     <row r="694">
-      <c r="A694" s="9"/>
+      <c r="A694" s="10"/>
     </row>
     <row r="695">
-      <c r="A695" s="9"/>
+      <c r="A695" s="10"/>
     </row>
     <row r="696">
-      <c r="A696" s="9"/>
+      <c r="A696" s="10"/>
     </row>
     <row r="697">
-      <c r="A697" s="9"/>
+      <c r="A697" s="10"/>
     </row>
     <row r="698">
-      <c r="A698" s="9"/>
+      <c r="A698" s="10"/>
     </row>
     <row r="699">
-      <c r="A699" s="9"/>
+      <c r="A699" s="10"/>
     </row>
     <row r="700">
-      <c r="A700" s="9"/>
+      <c r="A700" s="10"/>
     </row>
     <row r="701">
-      <c r="A701" s="9"/>
+      <c r="A701" s="10"/>
     </row>
     <row r="702">
-      <c r="A702" s="9"/>
+      <c r="A702" s="10"/>
     </row>
     <row r="703">
-      <c r="A703" s="9"/>
+      <c r="A703" s="10"/>
     </row>
     <row r="704">
-      <c r="A704" s="9"/>
+      <c r="A704" s="10"/>
     </row>
     <row r="705">
-      <c r="A705" s="9"/>
+      <c r="A705" s="10"/>
     </row>
     <row r="706">
-      <c r="A706" s="9"/>
+      <c r="A706" s="10"/>
     </row>
     <row r="707">
-      <c r="A707" s="9"/>
+      <c r="A707" s="10"/>
     </row>
     <row r="708">
-      <c r="A708" s="9"/>
+      <c r="A708" s="10"/>
     </row>
     <row r="709">
-      <c r="A709" s="9"/>
+      <c r="A709" s="10"/>
     </row>
     <row r="710">
-      <c r="A710" s="9"/>
+      <c r="A710" s="10"/>
     </row>
     <row r="711">
-      <c r="A711" s="9"/>
+      <c r="A711" s="10"/>
     </row>
     <row r="712">
-      <c r="A712" s="9"/>
+      <c r="A712" s="10"/>
     </row>
     <row r="713">
-      <c r="A713" s="9"/>
+      <c r="A713" s="10"/>
     </row>
     <row r="714">
-      <c r="A714" s="9"/>
+      <c r="A714" s="10"/>
     </row>
     <row r="715">
-      <c r="A715" s="9"/>
+      <c r="A715" s="10"/>
     </row>
     <row r="716">
-      <c r="A716" s="9"/>
+      <c r="A716" s="10"/>
     </row>
     <row r="717">
-      <c r="A717" s="9"/>
+      <c r="A717" s="10"/>
     </row>
     <row r="718">
-      <c r="A718" s="9"/>
+      <c r="A718" s="10"/>
     </row>
     <row r="719">
-      <c r="A719" s="9"/>
+      <c r="A719" s="10"/>
     </row>
     <row r="720">
-      <c r="A720" s="9"/>
+      <c r="A720" s="10"/>
     </row>
     <row r="721">
-      <c r="A721" s="9"/>
+      <c r="A721" s="10"/>
     </row>
     <row r="722">
-      <c r="A722" s="9"/>
+      <c r="A722" s="10"/>
     </row>
     <row r="723">
-      <c r="A723" s="9"/>
+      <c r="A723" s="10"/>
     </row>
     <row r="724">
-      <c r="A724" s="9"/>
+      <c r="A724" s="10"/>
     </row>
     <row r="725">
-      <c r="A725" s="9"/>
+      <c r="A725" s="10"/>
     </row>
     <row r="726">
-      <c r="A726" s="9"/>
+      <c r="A726" s="10"/>
     </row>
     <row r="727">
-      <c r="A727" s="9"/>
+      <c r="A727" s="10"/>
     </row>
     <row r="728">
-      <c r="A728" s="9"/>
+      <c r="A728" s="10"/>
     </row>
     <row r="729">
-      <c r="A729" s="9"/>
+      <c r="A729" s="10"/>
     </row>
     <row r="730">
-      <c r="A730" s="9"/>
+      <c r="A730" s="10"/>
     </row>
     <row r="731">
-      <c r="A731" s="9"/>
+      <c r="A731" s="10"/>
     </row>
     <row r="732">
-      <c r="A732" s="9"/>
+      <c r="A732" s="10"/>
     </row>
     <row r="733">
-      <c r="A733" s="9"/>
+      <c r="A733" s="10"/>
     </row>
     <row r="734">
-      <c r="A734" s="9"/>
+      <c r="A734" s="10"/>
     </row>
     <row r="735">
-      <c r="A735" s="9"/>
+      <c r="A735" s="10"/>
     </row>
     <row r="736">
-      <c r="A736" s="9"/>
+      <c r="A736" s="10"/>
     </row>
     <row r="737">
-      <c r="A737" s="9"/>
+      <c r="A737" s="10"/>
     </row>
     <row r="738">
-      <c r="A738" s="9"/>
+      <c r="A738" s="10"/>
     </row>
     <row r="739">
-      <c r="A739" s="9"/>
+      <c r="A739" s="10"/>
     </row>
     <row r="740">
-      <c r="A740" s="9"/>
+      <c r="A740" s="10"/>
     </row>
     <row r="741">
-      <c r="A741" s="9"/>
+      <c r="A741" s="10"/>
     </row>
     <row r="742">
-      <c r="A742" s="9"/>
+      <c r="A742" s="10"/>
     </row>
     <row r="743">
-      <c r="A743" s="9"/>
+      <c r="A743" s="10"/>
     </row>
     <row r="744">
-      <c r="A744" s="9"/>
+      <c r="A744" s="10"/>
     </row>
     <row r="745">
-      <c r="A745" s="9"/>
+      <c r="A745" s="10"/>
     </row>
     <row r="746">
-      <c r="A746" s="9"/>
+      <c r="A746" s="10"/>
     </row>
     <row r="747">
-      <c r="A747" s="9"/>
+      <c r="A747" s="10"/>
     </row>
     <row r="748">
-      <c r="A748" s="9"/>
+      <c r="A748" s="10"/>
     </row>
     <row r="749">
-      <c r="A749" s="9"/>
+      <c r="A749" s="10"/>
     </row>
     <row r="750">
-      <c r="A750" s="9"/>
+      <c r="A750" s="10"/>
     </row>
     <row r="751">
-      <c r="A751" s="9"/>
+      <c r="A751" s="10"/>
     </row>
     <row r="752">
-      <c r="A752" s="9"/>
+      <c r="A752" s="10"/>
     </row>
     <row r="753">
-      <c r="A753" s="9"/>
+      <c r="A753" s="10"/>
     </row>
     <row r="754">
-      <c r="A754" s="9"/>
+      <c r="A754" s="10"/>
     </row>
     <row r="755">
-      <c r="A755" s="9"/>
+      <c r="A755" s="10"/>
     </row>
     <row r="756">
-      <c r="A756" s="9"/>
+      <c r="A756" s="10"/>
     </row>
     <row r="757">
-      <c r="A757" s="9"/>
+      <c r="A757" s="10"/>
     </row>
     <row r="758">
-      <c r="A758" s="9"/>
+      <c r="A758" s="10"/>
     </row>
     <row r="759">
-      <c r="A759" s="9"/>
+      <c r="A759" s="10"/>
     </row>
     <row r="760">
-      <c r="A760" s="9"/>
+      <c r="A760" s="10"/>
     </row>
     <row r="761">
-      <c r="A761" s="9"/>
+      <c r="A761" s="10"/>
     </row>
     <row r="762">
-      <c r="A762" s="9"/>
+      <c r="A762" s="10"/>
     </row>
     <row r="763">
-      <c r="A763" s="9"/>
+      <c r="A763" s="10"/>
     </row>
     <row r="764">
-      <c r="A764" s="9"/>
+      <c r="A764" s="10"/>
     </row>
     <row r="765">
-      <c r="A765" s="9"/>
+      <c r="A765" s="10"/>
     </row>
     <row r="766">
-      <c r="A766" s="9"/>
+      <c r="A766" s="10"/>
     </row>
     <row r="767">
-      <c r="A767" s="9"/>
+      <c r="A767" s="10"/>
     </row>
     <row r="768">
-      <c r="A768" s="9"/>
+      <c r="A768" s="10"/>
     </row>
     <row r="769">
-      <c r="A769" s="9"/>
+      <c r="A769" s="10"/>
     </row>
     <row r="770">
-      <c r="A770" s="9"/>
+      <c r="A770" s="10"/>
     </row>
     <row r="771">
-      <c r="A771" s="9"/>
+      <c r="A771" s="10"/>
     </row>
     <row r="772">
-      <c r="A772" s="9"/>
+      <c r="A772" s="10"/>
     </row>
     <row r="773">
-      <c r="A773" s="9"/>
+      <c r="A773" s="10"/>
     </row>
     <row r="774">
-      <c r="A774" s="9"/>
+      <c r="A774" s="10"/>
     </row>
     <row r="775">
-      <c r="A775" s="9"/>
+      <c r="A775" s="10"/>
     </row>
     <row r="776">
-      <c r="A776" s="9"/>
+      <c r="A776" s="10"/>
     </row>
     <row r="777">
-      <c r="A777" s="9"/>
+      <c r="A777" s="10"/>
     </row>
     <row r="778">
-      <c r="A778" s="9"/>
+      <c r="A778" s="10"/>
     </row>
     <row r="779">
-      <c r="A779" s="9"/>
+      <c r="A779" s="10"/>
     </row>
     <row r="780">
-      <c r="A780" s="9"/>
+      <c r="A780" s="10"/>
     </row>
     <row r="781">
-      <c r="A781" s="9"/>
+      <c r="A781" s="10"/>
     </row>
     <row r="782">
-      <c r="A782" s="9"/>
+      <c r="A782" s="10"/>
     </row>
     <row r="783">
-      <c r="A783" s="9"/>
+      <c r="A783" s="10"/>
     </row>
     <row r="784">
-      <c r="A784" s="9"/>
+      <c r="A784" s="10"/>
     </row>
     <row r="785">
-      <c r="A785" s="9"/>
+      <c r="A785" s="10"/>
     </row>
     <row r="786">
-      <c r="A786" s="9"/>
+      <c r="A786" s="10"/>
     </row>
     <row r="787">
-      <c r="A787" s="9"/>
+      <c r="A787" s="10"/>
     </row>
     <row r="788">
-      <c r="A788" s="9"/>
+      <c r="A788" s="10"/>
     </row>
     <row r="789">
-      <c r="A789" s="9"/>
+      <c r="A789" s="10"/>
     </row>
     <row r="790">
-      <c r="A790" s="9"/>
+      <c r="A790" s="10"/>
     </row>
     <row r="791">
-      <c r="A791" s="9"/>
+      <c r="A791" s="10"/>
     </row>
     <row r="792">
-      <c r="A792" s="9"/>
+      <c r="A792" s="10"/>
     </row>
     <row r="793">
-      <c r="A793" s="9"/>
+      <c r="A793" s="10"/>
     </row>
     <row r="794">
-      <c r="A794" s="9"/>
+      <c r="A794" s="10"/>
     </row>
     <row r="795">
-      <c r="A795" s="9"/>
+      <c r="A795" s="10"/>
     </row>
     <row r="796">
-      <c r="A796" s="9"/>
+      <c r="A796" s="10"/>
     </row>
     <row r="797">
-      <c r="A797" s="9"/>
+      <c r="A797" s="10"/>
     </row>
     <row r="798">
-      <c r="A798" s="9"/>
+      <c r="A798" s="10"/>
     </row>
     <row r="799">
-      <c r="A799" s="9"/>
+      <c r="A799" s="10"/>
     </row>
     <row r="800">
-      <c r="A800" s="9"/>
+      <c r="A800" s="10"/>
     </row>
     <row r="801">
-      <c r="A801" s="9"/>
+      <c r="A801" s="10"/>
     </row>
     <row r="802">
-      <c r="A802" s="9"/>
+      <c r="A802" s="10"/>
     </row>
     <row r="803">
-      <c r="A803" s="9"/>
+      <c r="A803" s="10"/>
     </row>
     <row r="804">
-      <c r="A804" s="9"/>
+      <c r="A804" s="10"/>
     </row>
     <row r="805">
-      <c r="A805" s="9"/>
+      <c r="A805" s="10"/>
     </row>
     <row r="806">
-      <c r="A806" s="9"/>
+      <c r="A806" s="10"/>
     </row>
     <row r="807">
-      <c r="A807" s="9"/>
+      <c r="A807" s="10"/>
     </row>
     <row r="808">
-      <c r="A808" s="9"/>
+      <c r="A808" s="10"/>
     </row>
     <row r="809">
-      <c r="A809" s="9"/>
+      <c r="A809" s="10"/>
     </row>
     <row r="810">
-      <c r="A810" s="9"/>
+      <c r="A810" s="10"/>
     </row>
     <row r="811">
-      <c r="A811" s="9"/>
+      <c r="A811" s="10"/>
     </row>
     <row r="812">
-      <c r="A812" s="9"/>
+      <c r="A812" s="10"/>
     </row>
     <row r="813">
-      <c r="A813" s="9"/>
+      <c r="A813" s="10"/>
     </row>
     <row r="814">
-      <c r="A814" s="9"/>
+      <c r="A814" s="10"/>
     </row>
     <row r="815">
-      <c r="A815" s="9"/>
+      <c r="A815" s="10"/>
     </row>
     <row r="816">
-      <c r="A816" s="9"/>
+      <c r="A816" s="10"/>
     </row>
     <row r="817">
-      <c r="A817" s="9"/>
+      <c r="A817" s="10"/>
     </row>
     <row r="818">
-      <c r="A818" s="9"/>
+      <c r="A818" s="10"/>
     </row>
     <row r="819">
-      <c r="A819" s="9"/>
+      <c r="A819" s="10"/>
     </row>
     <row r="820">
-      <c r="A820" s="9"/>
+      <c r="A820" s="10"/>
     </row>
     <row r="821">
-      <c r="A821" s="9"/>
+      <c r="A821" s="10"/>
     </row>
     <row r="822">
-      <c r="A822" s="9"/>
+      <c r="A822" s="10"/>
     </row>
     <row r="823">
-      <c r="A823" s="9"/>
+      <c r="A823" s="10"/>
     </row>
     <row r="824">
-      <c r="A824" s="9"/>
+      <c r="A824" s="10"/>
     </row>
     <row r="825">
-      <c r="A825" s="9"/>
+      <c r="A825" s="10"/>
     </row>
     <row r="826">
-      <c r="A826" s="9"/>
+      <c r="A826" s="10"/>
     </row>
     <row r="827">
-      <c r="A827" s="9"/>
+      <c r="A827" s="10"/>
     </row>
     <row r="828">
-      <c r="A828" s="9"/>
+      <c r="A828" s="10"/>
     </row>
     <row r="829">
-      <c r="A829" s="9"/>
+      <c r="A829" s="10"/>
     </row>
     <row r="830">
-      <c r="A830" s="9"/>
+      <c r="A830" s="10"/>
     </row>
     <row r="831">
-      <c r="A831" s="9"/>
+      <c r="A831" s="10"/>
     </row>
     <row r="832">
-      <c r="A832" s="9"/>
+      <c r="A832" s="10"/>
     </row>
     <row r="833">
-      <c r="A833" s="9"/>
+      <c r="A833" s="10"/>
     </row>
     <row r="834">
-      <c r="A834" s="9"/>
+      <c r="A834" s="10"/>
     </row>
     <row r="835">
-      <c r="A835" s="9"/>
+      <c r="A835" s="10"/>
     </row>
     <row r="836">
-      <c r="A836" s="9"/>
+      <c r="A836" s="10"/>
     </row>
     <row r="837">
-      <c r="A837" s="9"/>
+      <c r="A837" s="10"/>
     </row>
     <row r="838">
-      <c r="A838" s="9"/>
+      <c r="A838" s="10"/>
     </row>
     <row r="839">
-      <c r="A839" s="9"/>
+      <c r="A839" s="10"/>
     </row>
     <row r="840">
-      <c r="A840" s="9"/>
+      <c r="A840" s="10"/>
     </row>
     <row r="841">
-      <c r="A841" s="9"/>
+      <c r="A841" s="10"/>
     </row>
     <row r="842">
-      <c r="A842" s="9"/>
+      <c r="A842" s="10"/>
     </row>
     <row r="843">
-      <c r="A843" s="9"/>
+      <c r="A843" s="10"/>
     </row>
     <row r="844">
-      <c r="A844" s="9"/>
+      <c r="A844" s="10"/>
     </row>
     <row r="845">
-      <c r="A845" s="9"/>
+      <c r="A845" s="10"/>
     </row>
     <row r="846">
-      <c r="A846" s="9"/>
+      <c r="A846" s="10"/>
     </row>
     <row r="847">
-      <c r="A847" s="9"/>
+      <c r="A847" s="10"/>
     </row>
     <row r="848">
-      <c r="A848" s="9"/>
+      <c r="A848" s="10"/>
     </row>
     <row r="849">
-      <c r="A849" s="9"/>
+      <c r="A849" s="10"/>
     </row>
     <row r="850">
-      <c r="A850" s="9"/>
+      <c r="A850" s="10"/>
     </row>
     <row r="851">
-      <c r="A851" s="9"/>
+      <c r="A851" s="10"/>
     </row>
     <row r="852">
-      <c r="A852" s="9"/>
+      <c r="A852" s="10"/>
     </row>
     <row r="853">
-      <c r="A853" s="9"/>
+      <c r="A853" s="10"/>
     </row>
     <row r="854">
-      <c r="A854" s="9"/>
+      <c r="A854" s="10"/>
     </row>
     <row r="855">
-      <c r="A855" s="9"/>
+      <c r="A855" s="10"/>
     </row>
     <row r="856">
-      <c r="A856" s="9"/>
+      <c r="A856" s="10"/>
     </row>
     <row r="857">
-      <c r="A857" s="9"/>
+      <c r="A857" s="10"/>
     </row>
     <row r="858">
-      <c r="A858" s="9"/>
+      <c r="A858" s="10"/>
     </row>
     <row r="859">
-      <c r="A859" s="9"/>
+      <c r="A859" s="10"/>
     </row>
     <row r="860">
-      <c r="A860" s="9"/>
+      <c r="A860" s="10"/>
     </row>
     <row r="861">
-      <c r="A861" s="9"/>
+      <c r="A861" s="10"/>
     </row>
     <row r="862">
-      <c r="A862" s="9"/>
+      <c r="A862" s="10"/>
     </row>
     <row r="863">
-      <c r="A863" s="9"/>
+      <c r="A863" s="10"/>
     </row>
     <row r="864">
-      <c r="A864" s="9"/>
+      <c r="A864" s="10"/>
     </row>
     <row r="865">
-      <c r="A865" s="9"/>
+      <c r="A865" s="10"/>
     </row>
     <row r="866">
-      <c r="A866" s="9"/>
+      <c r="A866" s="10"/>
     </row>
     <row r="867">
-      <c r="A867" s="9"/>
+      <c r="A867" s="10"/>
     </row>
     <row r="868">
-      <c r="A868" s="9"/>
+      <c r="A868" s="10"/>
     </row>
     <row r="869">
-      <c r="A869" s="9"/>
+      <c r="A869" s="10"/>
     </row>
     <row r="870">
-      <c r="A870" s="9"/>
+      <c r="A870" s="10"/>
     </row>
     <row r="871">
-      <c r="A871" s="9"/>
+      <c r="A871" s="10"/>
     </row>
     <row r="872">
-      <c r="A872" s="9"/>
+      <c r="A872" s="10"/>
     </row>
     <row r="873">
-      <c r="A873" s="9"/>
+      <c r="A873" s="10"/>
     </row>
     <row r="874">
-      <c r="A874" s="9"/>
+      <c r="A874" s="10"/>
     </row>
     <row r="875">
-      <c r="A875" s="9"/>
+      <c r="A875" s="10"/>
     </row>
     <row r="876">
-      <c r="A876" s="9"/>
+      <c r="A876" s="10"/>
     </row>
     <row r="877">
-      <c r="A877" s="9"/>
+      <c r="A877" s="10"/>
     </row>
     <row r="878">
-      <c r="A878" s="9"/>
+      <c r="A878" s="10"/>
     </row>
     <row r="879">
-      <c r="A879" s="9"/>
+      <c r="A879" s="10"/>
     </row>
     <row r="880">
-      <c r="A880" s="9"/>
+      <c r="A880" s="10"/>
     </row>
     <row r="881">
-      <c r="A881" s="9"/>
+      <c r="A881" s="10"/>
     </row>
     <row r="882">
-      <c r="A882" s="9"/>
+      <c r="A882" s="10"/>
     </row>
     <row r="883">
-      <c r="A883" s="9"/>
+      <c r="A883" s="10"/>
     </row>
     <row r="884">
-      <c r="A884" s="9"/>
+      <c r="A884" s="10"/>
     </row>
     <row r="885">
-      <c r="A885" s="9"/>
+      <c r="A885" s="10"/>
     </row>
     <row r="886">
-      <c r="A886" s="9"/>
+      <c r="A886" s="10"/>
     </row>
     <row r="887">
-      <c r="A887" s="9"/>
+      <c r="A887" s="10"/>
     </row>
     <row r="888">
-      <c r="A888" s="9"/>
+      <c r="A888" s="10"/>
     </row>
     <row r="889">
-      <c r="A889" s="9"/>
+      <c r="A889" s="10"/>
     </row>
     <row r="890">
-      <c r="A890" s="9"/>
+      <c r="A890" s="10"/>
     </row>
     <row r="891">
-      <c r="A891" s="9"/>
+      <c r="A891" s="10"/>
     </row>
     <row r="892">
-      <c r="A892" s="9"/>
+      <c r="A892" s="10"/>
     </row>
     <row r="893">
-      <c r="A893" s="9"/>
+      <c r="A893" s="10"/>
     </row>
     <row r="894">
-      <c r="A894" s="9"/>
+      <c r="A894" s="10"/>
     </row>
     <row r="895">
-      <c r="A895" s="9"/>
+      <c r="A895" s="10"/>
     </row>
     <row r="896">
-      <c r="A896" s="9"/>
+      <c r="A896" s="10"/>
     </row>
     <row r="897">
-      <c r="A897" s="9"/>
+      <c r="A897" s="10"/>
     </row>
     <row r="898">
-      <c r="A898" s="9"/>
+      <c r="A898" s="10"/>
     </row>
     <row r="899">
-      <c r="A899" s="9"/>
+      <c r="A899" s="10"/>
     </row>
     <row r="900">
-      <c r="A900" s="9"/>
+      <c r="A900" s="10"/>
     </row>
     <row r="901">
-      <c r="A901" s="9"/>
+      <c r="A901" s="10"/>
     </row>
     <row r="902">
-      <c r="A902" s="9"/>
+      <c r="A902" s="10"/>
     </row>
     <row r="903">
-      <c r="A903" s="9"/>
+      <c r="A903" s="10"/>
     </row>
     <row r="904">
-      <c r="A904" s="9"/>
+      <c r="A904" s="10"/>
     </row>
     <row r="905">
-      <c r="A905" s="9"/>
+      <c r="A905" s="10"/>
     </row>
     <row r="906">
-      <c r="A906" s="9"/>
+      <c r="A906" s="10"/>
     </row>
     <row r="907">
-      <c r="A907" s="9"/>
+      <c r="A907" s="10"/>
     </row>
     <row r="908">
-      <c r="A908" s="9"/>
+      <c r="A908" s="10"/>
     </row>
     <row r="909">
-      <c r="A909" s="9"/>
+      <c r="A909" s="10"/>
     </row>
     <row r="910">
-      <c r="A910" s="9"/>
+      <c r="A910" s="10"/>
     </row>
     <row r="911">
-      <c r="A911" s="9"/>
+      <c r="A911" s="10"/>
     </row>
     <row r="912">
-      <c r="A912" s="9"/>
+      <c r="A912" s="10"/>
     </row>
     <row r="913">
-      <c r="A913" s="9"/>
+      <c r="A913" s="10"/>
     </row>
     <row r="914">
-      <c r="A914" s="9"/>
+      <c r="A914" s="10"/>
     </row>
     <row r="915">
-      <c r="A915" s="9"/>
+      <c r="A915" s="10"/>
     </row>
     <row r="916">
-      <c r="A916" s="9"/>
+      <c r="A916" s="10"/>
     </row>
     <row r="917">
-      <c r="A917" s="9"/>
+      <c r="A917" s="10"/>
     </row>
     <row r="918">
-      <c r="A918" s="9"/>
+      <c r="A918" s="10"/>
     </row>
     <row r="919">
-      <c r="A919" s="9"/>
+      <c r="A919" s="10"/>
     </row>
     <row r="920">
-      <c r="A920" s="9"/>
+      <c r="A920" s="10"/>
     </row>
     <row r="921">
-      <c r="A921" s="9"/>
+      <c r="A921" s="10"/>
     </row>
     <row r="922">
-      <c r="A922" s="9"/>
+      <c r="A922" s="10"/>
     </row>
     <row r="923">
-      <c r="A923" s="9"/>
+      <c r="A923" s="10"/>
     </row>
     <row r="924">
-      <c r="A924" s="9"/>
+      <c r="A924" s="10"/>
     </row>
     <row r="925">
-      <c r="A925" s="9"/>
+      <c r="A925" s="10"/>
     </row>
     <row r="926">
-      <c r="A926" s="9"/>
+      <c r="A926" s="10"/>
     </row>
     <row r="927">
-      <c r="A927" s="9"/>
+      <c r="A927" s="10"/>
     </row>
     <row r="928">
-      <c r="A928" s="9"/>
+      <c r="A928" s="10"/>
     </row>
     <row r="929">
-      <c r="A929" s="9"/>
+      <c r="A929" s="10"/>
     </row>
     <row r="930">
-      <c r="A930" s="9"/>
+      <c r="A930" s="10"/>
     </row>
     <row r="931">
-      <c r="A931" s="9"/>
+      <c r="A931" s="10"/>
     </row>
     <row r="932">
-      <c r="A932" s="9"/>
+      <c r="A932" s="10"/>
     </row>
     <row r="933">
-      <c r="A933" s="9"/>
+      <c r="A933" s="10"/>
     </row>
     <row r="934">
-      <c r="A934" s="9"/>
+      <c r="A934" s="10"/>
     </row>
     <row r="935">
-      <c r="A935" s="9"/>
+      <c r="A935" s="10"/>
     </row>
     <row r="936">
-      <c r="A936" s="9"/>
+      <c r="A936" s="10"/>
     </row>
     <row r="937">
-      <c r="A937" s="9"/>
+      <c r="A937" s="10"/>
     </row>
     <row r="938">
-      <c r="A938" s="9"/>
+      <c r="A938" s="10"/>
     </row>
     <row r="939">
-      <c r="A939" s="9"/>
+      <c r="A939" s="10"/>
     </row>
     <row r="940">
-      <c r="A940" s="9"/>
+      <c r="A940" s="10"/>
     </row>
     <row r="941">
-      <c r="A941" s="9"/>
+      <c r="A941" s="10"/>
     </row>
     <row r="942">
-      <c r="A942" s="9"/>
+      <c r="A942" s="10"/>
     </row>
     <row r="943">
-      <c r="A943" s="9"/>
+      <c r="A943" s="10"/>
     </row>
     <row r="944">
-      <c r="A944" s="9"/>
+      <c r="A944" s="10"/>
     </row>
     <row r="945">
-      <c r="A945" s="9"/>
+      <c r="A945" s="10"/>
     </row>
     <row r="946">
-      <c r="A946" s="9"/>
+      <c r="A946" s="10"/>
     </row>
     <row r="947">
-      <c r="A947" s="9"/>
+      <c r="A947" s="10"/>
     </row>
     <row r="948">
-      <c r="A948" s="9"/>
+      <c r="A948" s="10"/>
     </row>
     <row r="949">
-      <c r="A949" s="9"/>
+      <c r="A949" s="10"/>
     </row>
     <row r="950">
-      <c r="A950" s="9"/>
+      <c r="A950" s="10"/>
     </row>
     <row r="951">
-      <c r="A951" s="9"/>
+      <c r="A951" s="10"/>
     </row>
     <row r="952">
-      <c r="A952" s="9"/>
+      <c r="A952" s="10"/>
     </row>
     <row r="953">
-      <c r="A953" s="9"/>
+      <c r="A953" s="10"/>
     </row>
     <row r="954">
-      <c r="A954" s="9"/>
+      <c r="A954" s="10"/>
     </row>
     <row r="955">
-      <c r="A955" s="9"/>
+      <c r="A955" s="10"/>
     </row>
     <row r="956">
-      <c r="A956" s="9"/>
+      <c r="A956" s="10"/>
     </row>
     <row r="957">
-      <c r="A957" s="9"/>
+      <c r="A957" s="10"/>
     </row>
     <row r="958">
-      <c r="A958" s="9"/>
+      <c r="A958" s="10"/>
     </row>
     <row r="959">
-      <c r="A959" s="9"/>
+      <c r="A959" s="10"/>
     </row>
     <row r="960">
-      <c r="A960" s="9"/>
+      <c r="A960" s="10"/>
     </row>
     <row r="961">
-      <c r="A961" s="9"/>
+      <c r="A961" s="10"/>
     </row>
     <row r="962">
-      <c r="A962" s="9"/>
+      <c r="A962" s="10"/>
     </row>
     <row r="963">
-      <c r="A963" s="9"/>
+      <c r="A963" s="10"/>
     </row>
     <row r="964">
-      <c r="A964" s="9"/>
+      <c r="A964" s="10"/>
     </row>
     <row r="965">
-      <c r="A965" s="9"/>
+      <c r="A965" s="10"/>
     </row>
     <row r="966">
-      <c r="A966" s="9"/>
+      <c r="A966" s="10"/>
     </row>
     <row r="967">
-      <c r="A967" s="9"/>
+      <c r="A967" s="10"/>
     </row>
     <row r="968">
-      <c r="A968" s="9"/>
+      <c r="A968" s="10"/>
     </row>
     <row r="969">
-      <c r="A969" s="9"/>
+      <c r="A969" s="10"/>
     </row>
     <row r="970">
-      <c r="A970" s="9"/>
+      <c r="A970" s="10"/>
     </row>
     <row r="971">
-      <c r="A971" s="9"/>
+      <c r="A971" s="10"/>
     </row>
     <row r="972">
-      <c r="A972" s="9"/>
+      <c r="A972" s="10"/>
     </row>
     <row r="973">
-      <c r="A973" s="9"/>
+      <c r="A973" s="10"/>
     </row>
     <row r="974">
-      <c r="A974" s="9"/>
+      <c r="A974" s="10"/>
     </row>
     <row r="975">
-      <c r="A975" s="9"/>
+      <c r="A975" s="10"/>
     </row>
     <row r="976">
-      <c r="A976" s="9"/>
+      <c r="A976" s="10"/>
     </row>
     <row r="977">
-      <c r="A977" s="9"/>
+      <c r="A977" s="10"/>
     </row>
     <row r="978">
-      <c r="A978" s="9"/>
+      <c r="A978" s="10"/>
     </row>
     <row r="979">
-      <c r="A979" s="9"/>
+      <c r="A979" s="10"/>
     </row>
     <row r="980">
-      <c r="A980" s="9"/>
+      <c r="A980" s="10"/>
     </row>
     <row r="981">
-      <c r="A981" s="9"/>
+      <c r="A981" s="10"/>
     </row>
     <row r="982">
-      <c r="A982" s="9"/>
+      <c r="A982" s="10"/>
     </row>
     <row r="983">
-      <c r="A983" s="9"/>
+      <c r="A983" s="10"/>
     </row>
     <row r="984">
-      <c r="A984" s="9"/>
+      <c r="A984" s="10"/>
     </row>
     <row r="985">
-      <c r="A985" s="9"/>
+      <c r="A985" s="10"/>
     </row>
     <row r="986">
-      <c r="A986" s="9"/>
+      <c r="A986" s="10"/>
     </row>
     <row r="987">
-      <c r="A987" s="9"/>
+      <c r="A987" s="10"/>
     </row>
     <row r="988">
-      <c r="A988" s="9"/>
+      <c r="A988" s="10"/>
     </row>
     <row r="989">
-      <c r="A989" s="9"/>
+      <c r="A989" s="10"/>
     </row>
     <row r="990">
-      <c r="A990" s="9"/>
+      <c r="A990" s="10"/>
     </row>
     <row r="991">
-      <c r="A991" s="9"/>
+      <c r="A991" s="10"/>
     </row>
     <row r="992">
-      <c r="A992" s="9"/>
+      <c r="A992" s="10"/>
     </row>
     <row r="993">
-      <c r="A993" s="9"/>
+      <c r="A993" s="10"/>
     </row>
     <row r="994">
-      <c r="A994" s="9"/>
+      <c r="A994" s="10"/>
     </row>
     <row r="995">
-      <c r="A995" s="9"/>
+      <c r="A995" s="10"/>
     </row>
     <row r="996">
-      <c r="A996" s="9"/>
+      <c r="A996" s="10"/>
     </row>
     <row r="997">
-      <c r="A997" s="9"/>
+      <c r="A997" s="10"/>
     </row>
     <row r="998">
-      <c r="A998" s="9"/>
+      <c r="A998" s="10"/>
     </row>
     <row r="999">
-      <c r="A999" s="9"/>
+      <c r="A999" s="10"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="9"/>
+      <c r="A1000" s="10"/>
     </row>
     <row r="1001">
-      <c r="A1001" s="9"/>
+      <c r="A1001" s="10"/>
     </row>
     <row r="1002">
-      <c r="A1002" s="9"/>
+      <c r="A1002" s="10"/>
     </row>
     <row r="1003">
-      <c r="A1003" s="9"/>
+      <c r="A1003" s="10"/>
     </row>
     <row r="1004">
-      <c r="A1004" s="9"/>
+      <c r="A1004" s="10"/>
     </row>
     <row r="1005">
-      <c r="A1005" s="9"/>
+      <c r="A1005" s="10"/>
     </row>
     <row r="1006">
-      <c r="A1006" s="9"/>
+      <c r="A1006" s="10"/>
     </row>
     <row r="1007">
-      <c r="A1007" s="9"/>
+      <c r="A1007" s="10"/>
     </row>
     <row r="1008">
-      <c r="A1008" s="9"/>
+      <c r="A1008" s="10"/>
     </row>
     <row r="1009">
-      <c r="A1009" s="9"/>
+      <c r="A1009" s="10"/>
     </row>
     <row r="1010">
-      <c r="A1010" s="9"/>
+      <c r="A1010" s="10"/>
     </row>
     <row r="1011">
-      <c r="A1011" s="9"/>
+      <c r="A1011" s="10"/>
     </row>
     <row r="1012">
-      <c r="A1012" s="9"/>
+      <c r="A1012" s="10"/>
     </row>
     <row r="1013">
-      <c r="A1013" s="9"/>
+      <c r="A1013" s="10"/>
     </row>
     <row r="1014">
-      <c r="A1014" s="9"/>
+      <c r="A1014" s="10"/>
     </row>
     <row r="1015">
-      <c r="A1015" s="9"/>
+      <c r="A1015" s="10"/>
     </row>
     <row r="1016">
-      <c r="A1016" s="9"/>
+      <c r="A1016" s="10"/>
     </row>
     <row r="1017">
-      <c r="A1017" s="9"/>
+      <c r="A1017" s="10"/>
     </row>
     <row r="1018">
-      <c r="A1018" s="9"/>
+      <c r="A1018" s="10"/>
     </row>
     <row r="1019">
-      <c r="A1019" s="9"/>
+      <c r="A1019" s="10"/>
     </row>
     <row r="1020">
-      <c r="A1020" s="9"/>
+      <c r="A1020" s="10"/>
     </row>
     <row r="1021">
-      <c r="A1021" s="9"/>
+      <c r="A1021" s="10"/>
     </row>
     <row r="1022">
-      <c r="A1022" s="9"/>
+      <c r="A1022" s="10"/>
     </row>
     <row r="1023">
-      <c r="A1023" s="9"/>
+      <c r="A1023" s="10"/>
     </row>
     <row r="1024">
-      <c r="A1024" s="9"/>
+      <c r="A1024" s="10"/>
     </row>
     <row r="1025">
-      <c r="A1025" s="9"/>
+      <c r="A1025" s="10"/>
     </row>
     <row r="1026">
-      <c r="A1026" s="9"/>
+      <c r="A1026" s="10"/>
     </row>
     <row r="1027">
-      <c r="A1027" s="9"/>
+      <c r="A1027" s="10"/>
     </row>
     <row r="1028">
-      <c r="A1028" s="9"/>
+      <c r="A1028" s="10"/>
     </row>
     <row r="1029">
-      <c r="A1029" s="9"/>
+      <c r="A1029" s="10"/>
     </row>
     <row r="1030">
-      <c r="A1030" s="9"/>
+      <c r="A1030" s="10"/>
     </row>
     <row r="1031">
-      <c r="A1031" s="9"/>
+      <c r="A1031" s="10"/>
     </row>
     <row r="1032">
-      <c r="A1032" s="9"/>
+      <c r="A1032" s="10"/>
     </row>
     <row r="1033">
-      <c r="A1033" s="9"/>
+      <c r="A1033" s="10"/>
     </row>
     <row r="1034">
-      <c r="A1034" s="9"/>
+      <c r="A1034" s="10"/>
     </row>
     <row r="1035">
-      <c r="A1035" s="9"/>
+      <c r="A1035" s="10"/>
     </row>
     <row r="1036">
-      <c r="A1036" s="9"/>
+      <c r="A1036" s="10"/>
     </row>
     <row r="1037">
-      <c r="A1037" s="9"/>
+      <c r="A1037" s="10"/>
     </row>
     <row r="1038">
-      <c r="A1038" s="9"/>
+      <c r="A1038" s="10"/>
     </row>
     <row r="1039">
-      <c r="A1039" s="9"/>
+      <c r="A1039" s="10"/>
     </row>
     <row r="1040">
-      <c r="A1040" s="9"/>
+      <c r="A1040" s="10"/>
     </row>
     <row r="1041">
-      <c r="A1041" s="9"/>
+      <c r="A1041" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -12645,7 +13429,49 @@
     <hyperlink r:id="rId374" ref="T393"/>
     <hyperlink r:id="rId375" ref="T394"/>
     <hyperlink r:id="rId376" ref="T395"/>
+    <hyperlink r:id="rId377" ref="T396"/>
+    <hyperlink r:id="rId378" ref="T397"/>
+    <hyperlink r:id="rId379" ref="T398"/>
+    <hyperlink r:id="rId380" ref="T399"/>
+    <hyperlink r:id="rId381" ref="T400"/>
+    <hyperlink r:id="rId382" ref="T401"/>
+    <hyperlink r:id="rId383" ref="T402"/>
+    <hyperlink r:id="rId384" ref="T403"/>
+    <hyperlink r:id="rId385" ref="T404"/>
+    <hyperlink r:id="rId386" ref="T405"/>
+    <hyperlink r:id="rId387" ref="T406"/>
+    <hyperlink r:id="rId388" ref="T407"/>
+    <hyperlink r:id="rId389" ref="T408"/>
+    <hyperlink r:id="rId390" ref="T409"/>
+    <hyperlink r:id="rId391" ref="T410"/>
+    <hyperlink r:id="rId392" ref="T411"/>
+    <hyperlink r:id="rId393" ref="T412"/>
+    <hyperlink r:id="rId394" ref="T413"/>
+    <hyperlink r:id="rId395" ref="T414"/>
+    <hyperlink r:id="rId396" ref="T415"/>
+    <hyperlink r:id="rId397" ref="T416"/>
+    <hyperlink r:id="rId398" ref="T417"/>
+    <hyperlink r:id="rId399" ref="T418"/>
+    <hyperlink r:id="rId400" ref="T419"/>
+    <hyperlink r:id="rId401" ref="T420"/>
+    <hyperlink r:id="rId402" ref="T421"/>
+    <hyperlink r:id="rId403" ref="C422"/>
+    <hyperlink r:id="rId404" ref="T422"/>
+    <hyperlink r:id="rId405" ref="T423"/>
+    <hyperlink r:id="rId406" ref="T424"/>
+    <hyperlink r:id="rId407" ref="T425"/>
+    <hyperlink r:id="rId408" ref="T426"/>
+    <hyperlink r:id="rId409" ref="T427"/>
+    <hyperlink r:id="rId410" ref="T428"/>
+    <hyperlink r:id="rId411" ref="T429"/>
+    <hyperlink r:id="rId412" ref="T430"/>
+    <hyperlink r:id="rId413" ref="T431"/>
+    <hyperlink r:id="rId414" ref="T432"/>
+    <hyperlink r:id="rId415" ref="T433"/>
+    <hyperlink r:id="rId416" ref="T434"/>
+    <hyperlink r:id="rId417" ref="T435"/>
+    <hyperlink r:id="rId418" ref="T436"/>
   </hyperlinks>
-  <drawing r:id="rId377"/>
+  <drawing r:id="rId419"/>
 </worksheet>
 </file>
--- a/Jesse - Job Applications 12_2023 - current.xlsx
+++ b/Jesse - Job Applications 12_2023 - current.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1375" uniqueCount="1213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1299">
   <si>
     <t>Date</t>
   </si>
@@ -3651,6 +3651,264 @@
   </si>
   <si>
     <t>https://www.indeed.com/jobs?q=ocaml&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;vjk=86aac4a1887263db&amp;advn=7531144435121147</t>
+  </si>
+  <si>
+    <t>Remote - Senior Software Engineer</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=c3753c88b33e621f&amp;advn=8690912762161442</t>
+  </si>
+  <si>
+    <t>Wristcheck</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=ce3aec845016aff9</t>
+  </si>
+  <si>
+    <t>Sr. Full Stack React Developer</t>
+  </si>
+  <si>
+    <t>First National Bank of Omaha</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=144d3ff78d9605c9</t>
+  </si>
+  <si>
+    <t>Principal Full Stack Software Engineer (Healthcare Integrations)</t>
+  </si>
+  <si>
+    <t>Agilon Health</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=bf31090c4756a8eb</t>
+  </si>
+  <si>
+    <t>Remote Software QA Tester(LM)</t>
+  </si>
+  <si>
+    <t>DataFielder Inc, LLC</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=software&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=c3e3d1b9206fd02d</t>
+  </si>
+  <si>
+    <t>Remote Back End Web Developer</t>
+  </si>
+  <si>
+    <t>NextEra Energy</t>
+  </si>
+  <si>
+    <t>Crescent Solutions - Jeremy Gering</t>
+  </si>
+  <si>
+    <t>LinkedIn InMail - no email - no link - probably a scam</t>
+  </si>
+  <si>
+    <t>Bubble Developer</t>
+  </si>
+  <si>
+    <t>One NoCode</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3993864363</t>
+  </si>
+  <si>
+    <t>US Department of Labor (DOL)</t>
+  </si>
+  <si>
+    <t>Synergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aparasher.ctr@synergybis.com </t>
+  </si>
+  <si>
+    <t>Senior Application Developer</t>
+  </si>
+  <si>
+    <t>80Twenty</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3992330752</t>
+  </si>
+  <si>
+    <t>Senior Roblox Programmer</t>
+  </si>
+  <si>
+    <t>Orange Comet, Inc.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3994547091</t>
+  </si>
+  <si>
+    <t>Senior PHP Developer</t>
+  </si>
+  <si>
+    <t>Kaynes</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3994745331</t>
+  </si>
+  <si>
+    <t>senior react native developer</t>
+  </si>
+  <si>
+    <t>eRay Technologies LLC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3991697145</t>
+  </si>
+  <si>
+    <t>Patriot Software, LLC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3994733788</t>
+  </si>
+  <si>
+    <t>Connect Centric</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3993206785</t>
+  </si>
+  <si>
+    <t>Lead Developer</t>
+  </si>
+  <si>
+    <t>Susco</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3787725296</t>
+  </si>
+  <si>
+    <t>AGS Cyber</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3994602720</t>
+  </si>
+  <si>
+    <t>Freelance Front End Developer</t>
+  </si>
+  <si>
+    <t>Siege Media</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3993211423</t>
+  </si>
+  <si>
+    <t>Fullstack Developer</t>
+  </si>
+  <si>
+    <t>Pyramid Consulting, Inc</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3994149915</t>
+  </si>
+  <si>
+    <t>Senior UI Software Engineer</t>
+  </si>
+  <si>
+    <t>Slate Technologies Inc.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3993209747</t>
+  </si>
+  <si>
+    <t>Development Ops V: 24-02171</t>
+  </si>
+  <si>
+    <t>Akraya, Inc.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3994119224</t>
+  </si>
+  <si>
+    <t>IT Engineer with RDK development &amp; C++ experience</t>
+  </si>
+  <si>
+    <t>Smart IT Frame LLC</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3993243188</t>
+  </si>
+  <si>
+    <t>Senior Principal Software Engineer, gt.school (Remote) - $200,000/year USD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crossover </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3994947977</t>
+  </si>
+  <si>
+    <t>React Native Developer</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/viewjob?jk=4e259937ccd25140&amp;from=apply-conf</t>
+  </si>
+  <si>
+    <t>GoLang SW Engineer</t>
+  </si>
+  <si>
+    <t>Yoh, A Day &amp; Zimmermann Company</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=b28e4d3df5c96d37</t>
+  </si>
+  <si>
+    <t>Implementation Engineer (LA Remote)</t>
+  </si>
+  <si>
+    <t>Prelim</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=459e886cc88fdf64</t>
+  </si>
+  <si>
+    <t>Sr. Python Engineer (Remote)</t>
+  </si>
+  <si>
+    <t>OMG Technology</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=662d1c1454652c4e</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer, Observability</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=3a2b480f0ba44af2</t>
+  </si>
+  <si>
+    <t>Prescient Edge Federal</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=1925a9332e3f5ed8</t>
+  </si>
+  <si>
+    <t>Senior Lead Full-Stack Software Engineer</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;vjk=78fa2ace541954f4</t>
+  </si>
+  <si>
+    <t>Full Stack Developer(Angular/React)</t>
+  </si>
+  <si>
+    <t>ASCENDING</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;start=10&amp;vjk=727e2c8bc9e8f83c</t>
+  </si>
+  <si>
+    <t>Full-Stack JavaScript Engineer (6 Month Temp)</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;start=10&amp;vjk=9955a9280028ccec</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3982655283</t>
   </si>
 </sst>
 </file>
@@ -9753,6 +10011,9 @@
       <c r="C334" s="2" t="s">
         <v>946</v>
       </c>
+      <c r="R334" s="5">
+        <v>45510.0</v>
+      </c>
       <c r="T334" s="6" t="s">
         <v>947</v>
       </c>
@@ -10124,6 +10385,9 @@
       <c r="C359" s="2" t="s">
         <v>1017</v>
       </c>
+      <c r="R359" s="5">
+        <v>45509.0</v>
+      </c>
       <c r="T359" s="6" t="s">
         <v>1018</v>
       </c>
@@ -11092,6 +11356,9 @@
       <c r="C426" s="2" t="s">
         <v>1189</v>
       </c>
+      <c r="R426" s="5">
+        <v>45510.0</v>
+      </c>
       <c r="T426" s="6" t="s">
         <v>1190</v>
       </c>
@@ -11237,100 +11504,461 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="10"/>
+      <c r="A437" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="T437" s="6" t="s">
+        <v>1214</v>
+      </c>
     </row>
     <row r="438">
-      <c r="A438" s="10"/>
+      <c r="A438" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="T438" s="6" t="s">
+        <v>1216</v>
+      </c>
     </row>
     <row r="439">
-      <c r="A439" s="10"/>
+      <c r="A439" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="T439" s="6" t="s">
+        <v>1219</v>
+      </c>
     </row>
     <row r="440">
-      <c r="A440" s="10"/>
+      <c r="A440" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="T440" s="6" t="s">
+        <v>1222</v>
+      </c>
     </row>
     <row r="441">
-      <c r="A441" s="10"/>
+      <c r="A441" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="T441" s="6" t="s">
+        <v>1225</v>
+      </c>
     </row>
     <row r="442">
-      <c r="A442" s="10"/>
+      <c r="A442" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="T442" s="2" t="s">
+        <v>1229</v>
+      </c>
     </row>
     <row r="443">
-      <c r="A443" s="10"/>
+      <c r="A443" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="T443" s="4" t="s">
+        <v>1232</v>
+      </c>
     </row>
     <row r="444">
-      <c r="A444" s="10"/>
+      <c r="A444" s="1">
+        <v>45509.0</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="J444" s="5">
+        <v>45511.0</v>
+      </c>
+      <c r="S444" s="2" t="s">
+        <v>1235</v>
+      </c>
     </row>
     <row r="445">
-      <c r="A445" s="10"/>
+      <c r="A445" s="1">
+        <v>45510.0</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="T445" s="6" t="s">
+        <v>1238</v>
+      </c>
     </row>
     <row r="446">
-      <c r="A446" s="10"/>
+      <c r="A446" s="1">
+        <v>45510.0</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="T446" s="6" t="s">
+        <v>1241</v>
+      </c>
     </row>
     <row r="447">
-      <c r="A447" s="10"/>
+      <c r="A447" s="1">
+        <v>45510.0</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="T447" s="4" t="s">
+        <v>1244</v>
+      </c>
     </row>
     <row r="448">
-      <c r="A448" s="10"/>
+      <c r="A448" s="1">
+        <v>45510.0</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="T448" s="6" t="s">
+        <v>1247</v>
+      </c>
     </row>
     <row r="449">
-      <c r="A449" s="10"/>
+      <c r="A449" s="1">
+        <v>45510.0</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="T449" s="6" t="s">
+        <v>1249</v>
+      </c>
     </row>
     <row r="450">
-      <c r="A450" s="10"/>
+      <c r="A450" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="T450" s="6" t="s">
+        <v>1251</v>
+      </c>
     </row>
     <row r="451">
-      <c r="A451" s="10"/>
+      <c r="A451" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="T451" s="6" t="s">
+        <v>1254</v>
+      </c>
     </row>
     <row r="452">
-      <c r="A452" s="10"/>
+      <c r="A452" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="T452" s="6" t="s">
+        <v>1256</v>
+      </c>
     </row>
     <row r="453">
-      <c r="A453" s="10"/>
+      <c r="A453" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="T453" s="6" t="s">
+        <v>1259</v>
+      </c>
     </row>
     <row r="454">
-      <c r="A454" s="10"/>
+      <c r="A454" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="T454" s="6" t="s">
+        <v>1262</v>
+      </c>
     </row>
     <row r="455">
-      <c r="A455" s="10"/>
+      <c r="A455" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="T455" s="6" t="s">
+        <v>1265</v>
+      </c>
     </row>
     <row r="456">
-      <c r="A456" s="10"/>
+      <c r="A456" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="T456" s="6" t="s">
+        <v>1268</v>
+      </c>
     </row>
     <row r="457">
-      <c r="A457" s="10"/>
+      <c r="A457" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="T457" s="6" t="s">
+        <v>1271</v>
+      </c>
     </row>
     <row r="458">
-      <c r="A458" s="10"/>
+      <c r="A458" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="T458" s="6" t="s">
+        <v>1274</v>
+      </c>
     </row>
     <row r="459">
-      <c r="A459" s="10"/>
+      <c r="A459" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="T459" s="6" t="s">
+        <v>1276</v>
+      </c>
     </row>
     <row r="460">
-      <c r="A460" s="10"/>
+      <c r="A460" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="T460" s="6" t="s">
+        <v>1279</v>
+      </c>
     </row>
     <row r="461">
-      <c r="A461" s="10"/>
+      <c r="A461" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>1281</v>
+      </c>
+      <c r="T461" s="4" t="s">
+        <v>1282</v>
+      </c>
     </row>
     <row r="462">
-      <c r="A462" s="10"/>
+      <c r="A462" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>1284</v>
+      </c>
+      <c r="T462" s="6" t="s">
+        <v>1285</v>
+      </c>
     </row>
     <row r="463">
-      <c r="A463" s="10"/>
+      <c r="A463" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="T463" s="6" t="s">
+        <v>1287</v>
+      </c>
     </row>
     <row r="464">
-      <c r="A464" s="10"/>
+      <c r="A464" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="T464" s="6" t="s">
+        <v>1289</v>
+      </c>
     </row>
     <row r="465">
-      <c r="A465" s="10"/>
+      <c r="A465" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>1290</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="T465" s="6" t="s">
+        <v>1291</v>
+      </c>
     </row>
     <row r="466">
-      <c r="A466" s="10"/>
+      <c r="A466" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="T466" s="6" t="s">
+        <v>1294</v>
+      </c>
     </row>
     <row r="467">
-      <c r="A467" s="10"/>
+      <c r="A467" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>1295</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>1296</v>
+      </c>
+      <c r="T467" s="4" t="s">
+        <v>1297</v>
+      </c>
     </row>
     <row r="468">
-      <c r="A468" s="10"/>
+      <c r="A468" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="T468" s="6" t="s">
+        <v>1298</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="10"/>
@@ -13047,9 +13675,6 @@
     </row>
     <row r="1040">
       <c r="A1040" s="10"/>
-    </row>
-    <row r="1041">
-      <c r="A1041" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13471,7 +14096,37 @@
     <hyperlink r:id="rId416" ref="T434"/>
     <hyperlink r:id="rId417" ref="T435"/>
     <hyperlink r:id="rId418" ref="T436"/>
+    <hyperlink r:id="rId419" ref="T437"/>
+    <hyperlink r:id="rId420" ref="T438"/>
+    <hyperlink r:id="rId421" ref="T439"/>
+    <hyperlink r:id="rId422" ref="T440"/>
+    <hyperlink r:id="rId423" ref="T441"/>
+    <hyperlink r:id="rId424" ref="T443"/>
+    <hyperlink r:id="rId425" ref="T445"/>
+    <hyperlink r:id="rId426" ref="T446"/>
+    <hyperlink r:id="rId427" ref="T447"/>
+    <hyperlink r:id="rId428" ref="T448"/>
+    <hyperlink r:id="rId429" ref="T449"/>
+    <hyperlink r:id="rId430" ref="T450"/>
+    <hyperlink r:id="rId431" ref="T451"/>
+    <hyperlink r:id="rId432" ref="T452"/>
+    <hyperlink r:id="rId433" ref="T453"/>
+    <hyperlink r:id="rId434" ref="T454"/>
+    <hyperlink r:id="rId435" ref="T455"/>
+    <hyperlink r:id="rId436" ref="T456"/>
+    <hyperlink r:id="rId437" ref="T457"/>
+    <hyperlink r:id="rId438" ref="T458"/>
+    <hyperlink r:id="rId439" ref="T459"/>
+    <hyperlink r:id="rId440" ref="T460"/>
+    <hyperlink r:id="rId441" ref="T461"/>
+    <hyperlink r:id="rId442" ref="T462"/>
+    <hyperlink r:id="rId443" ref="T463"/>
+    <hyperlink r:id="rId444" ref="T464"/>
+    <hyperlink r:id="rId445" ref="T465"/>
+    <hyperlink r:id="rId446" ref="T466"/>
+    <hyperlink r:id="rId447" ref="T467"/>
+    <hyperlink r:id="rId448" ref="T468"/>
   </hyperlinks>
-  <drawing r:id="rId419"/>
+  <drawing r:id="rId449"/>
 </worksheet>
 </file>
--- a/Jesse - Job Applications 12_2023 - current.xlsx
+++ b/Jesse - Job Applications 12_2023 - current.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1473" uniqueCount="1299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1531" uniqueCount="1346">
   <si>
     <t>Date</t>
   </si>
@@ -236,7 +236,7 @@
     <t>AWS Cloud Software Architect</t>
   </si>
   <si>
-    <t>PFG (Principle Financial Group)</t>
+    <t>PFG (Principal Financial Group)</t>
   </si>
   <si>
     <t>GTS (Global Tech Services)</t>
@@ -3719,6 +3719,9 @@
     <t>Synergy</t>
   </si>
   <si>
+    <t>🤞</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aparasher.ctr@synergybis.com </t>
   </si>
   <si>
@@ -3909,6 +3912,144 @@
   </si>
   <si>
     <t>https://www.linkedin.com/jobs/view/3982655283</t>
+  </si>
+  <si>
+    <t>Back End Developer - Remote - Contract</t>
+  </si>
+  <si>
+    <t>CBTS</t>
+  </si>
+  <si>
+    <t>Indus Valley Consultants, Inc</t>
+  </si>
+  <si>
+    <t>rasmita@indusvalley.com</t>
+  </si>
+  <si>
+    <t>Fullstack Developer - 3 Years Contract - 100% Remote</t>
+  </si>
+  <si>
+    <t>ganesh.mandava@kellton.com</t>
+  </si>
+  <si>
+    <t>Ruby on Rails Engineer role</t>
+  </si>
+  <si>
+    <t>Genzeon</t>
+  </si>
+  <si>
+    <t>w3global</t>
+  </si>
+  <si>
+    <t>gordon.styles@w3global.com</t>
+  </si>
+  <si>
+    <t>SOAL Technology</t>
+  </si>
+  <si>
+    <t>MFawad@soaltech.com</t>
+  </si>
+  <si>
+    <t>Principal Engineer</t>
+  </si>
+  <si>
+    <t>Infinite Reality</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3984275093</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3995282535</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer at Recruitment Room</t>
+  </si>
+  <si>
+    <t>Limit X Solutions</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3993673301</t>
+  </si>
+  <si>
+    <t>Staff Software Engineer, Backend (Remote, US)</t>
+  </si>
+  <si>
+    <t>Renew Home</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3996531760</t>
+  </si>
+  <si>
+    <t>Technical Lead - Node, React, Azure</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3995982948</t>
+  </si>
+  <si>
+    <t>Senior Protocol Engineer</t>
+  </si>
+  <si>
+    <t>Hyphen Connect</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/jobs/view/3994298857</t>
+  </si>
+  <si>
+    <t>Senior Developer</t>
+  </si>
+  <si>
+    <t>Insurity</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=2aa9c79beb9d0f7a&amp;advn=4545443993450735</t>
+  </si>
+  <si>
+    <t>Forma</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;fromage=1&amp;sort=date&amp;vjk=a2f3adcf7dd50c2b</t>
+  </si>
+  <si>
+    <t>Experienced Software Engineer</t>
+  </si>
+  <si>
+    <t>Principal Financial Group</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;sort=date&amp;fromage=1&amp;start=10&amp;vjk=24caa2d8266111d8</t>
+  </si>
+  <si>
+    <t>Clerkie</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;sort=date&amp;fromage=1&amp;start=10&amp;vjk=213f7eedfab5f00e</t>
+  </si>
+  <si>
+    <t>Junior Ruby on Rails Engineer</t>
+  </si>
+  <si>
+    <t>Technical Training Professionals (TTP)</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;sort=date&amp;fromage=1&amp;start=10&amp;vjk=5735e8383a0807e5</t>
+  </si>
+  <si>
+    <t>Staff Full Stack Engineer in Test</t>
+  </si>
+  <si>
+    <t>Method, a GlobalLogic company</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;sort=date&amp;fromage=1&amp;start=10&amp;vjk=5efbb30cbc9fb348</t>
+  </si>
+  <si>
+    <t>Senior Software Engineer - React + Node</t>
+  </si>
+  <si>
+    <t>Xometry Inc</t>
+  </si>
+  <si>
+    <t>https://www.indeed.com/jobs?q=node.js&amp;sc=0kf%3Aattr%28DSQF7%29%3B&amp;sort=date&amp;fromage=1&amp;start=10&amp;vjk=0a191c60deadc8e4</t>
   </si>
 </sst>
 </file>
@@ -9471,6 +9612,9 @@
       <c r="C298" s="2" t="s">
         <v>846</v>
       </c>
+      <c r="R298" s="5">
+        <v>45511.0</v>
+      </c>
       <c r="T298" s="6" t="s">
         <v>847</v>
       </c>
@@ -11056,6 +11200,9 @@
       <c r="C405" s="2" t="s">
         <v>1134</v>
       </c>
+      <c r="R405" s="5">
+        <v>45511.0</v>
+      </c>
       <c r="T405" s="6" t="s">
         <v>1135</v>
       </c>
@@ -11216,6 +11363,9 @@
       <c r="C416" s="2" t="s">
         <v>1162</v>
       </c>
+      <c r="R416" s="5">
+        <v>45513.0</v>
+      </c>
       <c r="T416" s="6" t="s">
         <v>1163</v>
       </c>
@@ -11328,6 +11478,9 @@
       <c r="C424" s="2" t="s">
         <v>1183</v>
       </c>
+      <c r="R424" s="5">
+        <v>45513.0</v>
+      </c>
       <c r="T424" s="6" t="s">
         <v>1184</v>
       </c>
@@ -11429,6 +11582,9 @@
       <c r="C431" s="2" t="s">
         <v>1201</v>
       </c>
+      <c r="R431" s="5">
+        <v>45512.0</v>
+      </c>
       <c r="T431" s="6" t="s">
         <v>1202</v>
       </c>
@@ -11499,6 +11655,9 @@
       <c r="C436" s="2" t="s">
         <v>1171</v>
       </c>
+      <c r="R436" s="5">
+        <v>45512.0</v>
+      </c>
       <c r="T436" s="6" t="s">
         <v>1212</v>
       </c>
@@ -11600,6 +11759,9 @@
       <c r="C443" s="2" t="s">
         <v>1231</v>
       </c>
+      <c r="R443" s="5">
+        <v>45512.0</v>
+      </c>
       <c r="T443" s="4" t="s">
         <v>1232</v>
       </c>
@@ -11620,8 +11782,11 @@
       <c r="J444" s="5">
         <v>45511.0</v>
       </c>
+      <c r="K444" s="2" t="s">
+        <v>1235</v>
+      </c>
       <c r="S444" s="2" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="445">
@@ -11629,13 +11794,13 @@
         <v>45510.0</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="C445" s="2" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="T445" s="6" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="446">
@@ -11643,13 +11808,13 @@
         <v>45510.0</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="C446" s="2" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="T446" s="6" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="447">
@@ -11657,13 +11822,13 @@
         <v>45510.0</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C447" s="2" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="T447" s="4" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="448">
@@ -11671,13 +11836,13 @@
         <v>45510.0</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C448" s="2" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="T448" s="6" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="449">
@@ -11688,10 +11853,10 @@
         <v>50</v>
       </c>
       <c r="C449" s="2" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="T449" s="6" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="450">
@@ -11702,10 +11867,10 @@
         <v>50</v>
       </c>
       <c r="C450" s="2" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="T450" s="6" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="451">
@@ -11713,13 +11878,13 @@
         <v>45511.0</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C451" s="2" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="T451" s="6" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="452">
@@ -11730,10 +11895,10 @@
         <v>50</v>
       </c>
       <c r="C452" s="2" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="T452" s="6" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="453">
@@ -11741,13 +11906,13 @@
         <v>45511.0</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C453" s="2" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="T453" s="6" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="454">
@@ -11755,13 +11920,13 @@
         <v>45511.0</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="C454" s="2" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="T454" s="6" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="455">
@@ -11769,13 +11934,13 @@
         <v>45511.0</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="C455" s="2" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="T455" s="6" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="456">
@@ -11783,13 +11948,13 @@
         <v>45511.0</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C456" s="2" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="T456" s="6" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="457">
@@ -11797,13 +11962,13 @@
         <v>45511.0</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C457" s="2" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="T457" s="6" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="458">
@@ -11811,13 +11976,13 @@
         <v>45511.0</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C458" s="2" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="T458" s="6" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="459">
@@ -11825,13 +11990,13 @@
         <v>45511.0</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="C459" s="2" t="s">
         <v>1210</v>
       </c>
       <c r="T459" s="6" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="460">
@@ -11839,13 +12004,13 @@
         <v>45511.0</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="C460" s="2" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="T460" s="6" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="461">
@@ -11853,13 +12018,13 @@
         <v>45511.0</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="C461" s="2" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="T461" s="4" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="462">
@@ -11867,13 +12032,13 @@
         <v>45511.0</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C462" s="2" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="T462" s="6" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="463">
@@ -11881,13 +12046,13 @@
         <v>45511.0</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="C463" s="2" t="s">
         <v>67</v>
       </c>
       <c r="T463" s="6" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="464">
@@ -11898,10 +12063,10 @@
         <v>205</v>
       </c>
       <c r="C464" s="2" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="T464" s="6" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="465">
@@ -11909,13 +12074,13 @@
         <v>45511.0</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="C465" s="2" t="s">
         <v>361</v>
       </c>
       <c r="T465" s="6" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="466">
@@ -11923,13 +12088,13 @@
         <v>45511.0</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="C466" s="2" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="T466" s="6" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="467">
@@ -11937,13 +12102,13 @@
         <v>45511.0</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="C467" s="2" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="T467" s="4" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="468">
@@ -11957,59 +12122,271 @@
         <v>569</v>
       </c>
       <c r="T468" s="6" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="10"/>
+      <c r="A469" s="1">
+        <v>45511.0</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="S469" s="2" t="s">
+        <v>1303</v>
+      </c>
     </row>
     <row r="470">
-      <c r="A470" s="10"/>
+      <c r="A470" s="1">
+        <v>45512.0</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="S470" s="2" t="s">
+        <v>1305</v>
+      </c>
     </row>
     <row r="471">
-      <c r="A471" s="10"/>
+      <c r="A471" s="1">
+        <v>45512.0</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>1308</v>
+      </c>
+      <c r="S471" s="2" t="s">
+        <v>1309</v>
+      </c>
     </row>
     <row r="472">
-      <c r="A472" s="10"/>
+      <c r="A472" s="1">
+        <v>45512.0</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E472" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="F472" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G472" s="5">
+        <v>45512.0</v>
+      </c>
+      <c r="H472" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="S472" s="2" t="s">
+        <v>1311</v>
+      </c>
+      <c r="T472" s="2"/>
     </row>
     <row r="473">
-      <c r="A473" s="10"/>
+      <c r="A473" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>1313</v>
+      </c>
+      <c r="T473" s="6" t="s">
+        <v>1314</v>
+      </c>
     </row>
     <row r="474">
-      <c r="A474" s="10"/>
+      <c r="A474" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>1080</v>
+      </c>
+      <c r="T474" s="6" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="475">
-      <c r="A475" s="10"/>
+      <c r="A475" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="T475" s="6" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="476">
-      <c r="A476" s="10"/>
+      <c r="A476" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="T476" s="6" t="s">
+        <v>1321</v>
+      </c>
     </row>
     <row r="477">
-      <c r="A477" s="10"/>
+      <c r="A477" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="T477" s="6" t="s">
+        <v>1323</v>
+      </c>
     </row>
     <row r="478">
-      <c r="A478" s="10"/>
+      <c r="A478" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="T478" s="6" t="s">
+        <v>1326</v>
+      </c>
     </row>
     <row r="479">
-      <c r="A479" s="10"/>
+      <c r="A479" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>1328</v>
+      </c>
+      <c r="T479" s="6" t="s">
+        <v>1329</v>
+      </c>
     </row>
     <row r="480">
-      <c r="A480" s="10"/>
+      <c r="A480" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="T480" s="6" t="s">
+        <v>1331</v>
+      </c>
     </row>
     <row r="481">
-      <c r="A481" s="10"/>
+      <c r="A481" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>1333</v>
+      </c>
+      <c r="T481" s="4" t="s">
+        <v>1334</v>
+      </c>
     </row>
     <row r="482">
-      <c r="A482" s="10"/>
+      <c r="A482" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B482" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C482" s="2" t="s">
+        <v>1335</v>
+      </c>
+      <c r="T482" s="6" t="s">
+        <v>1336</v>
+      </c>
     </row>
     <row r="483">
-      <c r="A483" s="10"/>
+      <c r="A483" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B483" s="2" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C483" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="T483" s="6" t="s">
+        <v>1339</v>
+      </c>
     </row>
     <row r="484">
-      <c r="A484" s="10"/>
+      <c r="A484" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>1341</v>
+      </c>
+      <c r="T484" s="6" t="s">
+        <v>1342</v>
+      </c>
     </row>
     <row r="485">
-      <c r="A485" s="10"/>
+      <c r="A485" s="1">
+        <v>45513.0</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="T485" s="6" t="s">
+        <v>1345</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="10"/>
@@ -14126,7 +14503,20 @@
     <hyperlink r:id="rId446" ref="T466"/>
     <hyperlink r:id="rId447" ref="T467"/>
     <hyperlink r:id="rId448" ref="T468"/>
+    <hyperlink r:id="rId449" ref="T473"/>
+    <hyperlink r:id="rId450" ref="T474"/>
+    <hyperlink r:id="rId451" ref="T475"/>
+    <hyperlink r:id="rId452" ref="T476"/>
+    <hyperlink r:id="rId453" ref="T477"/>
+    <hyperlink r:id="rId454" ref="T478"/>
+    <hyperlink r:id="rId455" ref="T479"/>
+    <hyperlink r:id="rId456" ref="T480"/>
+    <hyperlink r:id="rId457" ref="T481"/>
+    <hyperlink r:id="rId458" ref="T482"/>
+    <hyperlink r:id="rId459" ref="T483"/>
+    <hyperlink r:id="rId460" ref="T484"/>
+    <hyperlink r:id="rId461" ref="T485"/>
   </hyperlinks>
-  <drawing r:id="rId449"/>
+  <drawing r:id="rId462"/>
 </worksheet>
 </file>